--- a/truthtable.xlsx
+++ b/truthtable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\maze-generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1411BF35-DF38-4E72-B4B4-7327ED02BAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1EB2D3-089D-4D0D-9017-9BA1FC3B5D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{6EB0C219-D8D9-41E8-89F6-D01FF390453A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t>p1</t>
   </si>
@@ -71,7 +71,10 @@
     <t>16-&gt;16to19</t>
   </si>
   <si>
-    <t>(doesn’t convert)</t>
+    <t>should random be added?</t>
+  </si>
+  <si>
+    <t>if 0 add 0|2, if 1 add 0|1|2|3</t>
   </si>
 </sst>
 </file>
@@ -348,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -381,13 +384,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -702,16 +706,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11F3719-DC99-4ACE-AE9A-EFCD8E25182A}">
-  <dimension ref="C2:X30"/>
+  <dimension ref="C2:BR101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:70" x14ac:dyDescent="0.25">
       <c r="C3" s="18">
         <v>0</v>
       </c>
@@ -746,7 +750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:70" x14ac:dyDescent="0.25">
       <c r="C4" s="15">
         <v>1</v>
       </c>
@@ -781,7 +785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:70" x14ac:dyDescent="0.25">
       <c r="C5" s="19">
         <v>2</v>
       </c>
@@ -822,7 +826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:70" x14ac:dyDescent="0.25">
       <c r="C6" s="21">
         <v>3</v>
       </c>
@@ -857,68 +861,71 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="24">
         <v>4</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="34">
-        <v>4</v>
-      </c>
-      <c r="G7" s="35">
-        <v>0</v>
-      </c>
-      <c r="H7" s="36">
-        <v>1</v>
-      </c>
-      <c r="I7" s="35">
-        <v>2</v>
-      </c>
-      <c r="J7" s="36">
-        <v>3</v>
-      </c>
-      <c r="L7" s="36">
-        <v>16</v>
-      </c>
-      <c r="M7" s="36">
+      <c r="F7" s="33">
+        <v>4</v>
+      </c>
+      <c r="G7" s="34">
+        <v>0</v>
+      </c>
+      <c r="H7" s="35">
+        <v>1</v>
+      </c>
+      <c r="I7" s="34">
+        <v>2</v>
+      </c>
+      <c r="J7" s="35">
+        <v>3</v>
+      </c>
+      <c r="L7" s="35">
+        <v>16</v>
+      </c>
+      <c r="M7" s="35">
         <v>17</v>
       </c>
-      <c r="N7" s="36">
+      <c r="N7" s="35">
         <v>18</v>
       </c>
-      <c r="O7" s="36">
+      <c r="O7" s="35">
         <v>19</v>
       </c>
       <c r="Q7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-    </row>
-    <row r="9" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="3:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>2</v>
       </c>
       <c r="E9" t="s">
         <v>0</v>
       </c>
-      <c r="U9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
       <c r="E10" s="12">
         <v>0</v>
@@ -980,8 +987,130 @@
       <c r="X10" s="28">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="13">
+        <v>2</v>
+      </c>
+      <c r="AE10" s="13">
+        <v>3</v>
+      </c>
+      <c r="AF10" s="16">
+        <v>4</v>
+      </c>
+      <c r="AG10" s="16">
+        <v>5</v>
+      </c>
+      <c r="AH10" s="16">
+        <v>6</v>
+      </c>
+      <c r="AI10" s="16">
+        <v>7</v>
+      </c>
+      <c r="AJ10" s="20">
+        <v>8</v>
+      </c>
+      <c r="AK10" s="20">
+        <v>9</v>
+      </c>
+      <c r="AL10" s="20">
+        <v>10</v>
+      </c>
+      <c r="AM10" s="20">
+        <v>11</v>
+      </c>
+      <c r="AN10" s="23">
+        <v>12</v>
+      </c>
+      <c r="AO10" s="23">
+        <v>13</v>
+      </c>
+      <c r="AP10" s="23">
+        <v>14</v>
+      </c>
+      <c r="AQ10" s="23">
+        <v>15</v>
+      </c>
+      <c r="AR10" s="27">
+        <v>16</v>
+      </c>
+      <c r="AS10" s="27">
+        <v>17</v>
+      </c>
+      <c r="AT10" s="27">
+        <v>18</v>
+      </c>
+      <c r="AU10" s="28">
+        <v>19</v>
+      </c>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="13">
+        <v>1</v>
+      </c>
+      <c r="BA10" s="13">
+        <v>2</v>
+      </c>
+      <c r="BB10" s="13">
+        <v>3</v>
+      </c>
+      <c r="BC10" s="16">
+        <v>4</v>
+      </c>
+      <c r="BD10" s="16">
+        <v>5</v>
+      </c>
+      <c r="BE10" s="16">
+        <v>6</v>
+      </c>
+      <c r="BF10" s="16">
+        <v>7</v>
+      </c>
+      <c r="BG10" s="20">
+        <v>8</v>
+      </c>
+      <c r="BH10" s="20">
+        <v>9</v>
+      </c>
+      <c r="BI10" s="20">
+        <v>10</v>
+      </c>
+      <c r="BJ10" s="20">
+        <v>11</v>
+      </c>
+      <c r="BK10" s="23">
+        <v>12</v>
+      </c>
+      <c r="BL10" s="23">
+        <v>13</v>
+      </c>
+      <c r="BM10" s="23">
+        <v>14</v>
+      </c>
+      <c r="BN10" s="23">
+        <v>15</v>
+      </c>
+      <c r="BO10" s="27">
+        <v>16</v>
+      </c>
+      <c r="BP10" s="27">
+        <v>17</v>
+      </c>
+      <c r="BQ10" s="27">
+        <v>18</v>
+      </c>
+      <c r="BR10" s="28">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="3:70" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>1</v>
       </c>
@@ -994,16 +1123,16 @@
       <c r="F11" s="30">
         <v>7</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="31">
         <v>8</v>
       </c>
       <c r="H11" s="30">
         <v>6</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="32">
         <v>13</v>
       </c>
-      <c r="J11" s="33">
+      <c r="J11" s="32">
         <v>15</v>
       </c>
       <c r="K11" s="30">
@@ -1015,25 +1144,25 @@
       <c r="M11" s="31">
         <v>8</v>
       </c>
-      <c r="N11" s="33">
+      <c r="N11" s="32">
         <v>12</v>
       </c>
       <c r="O11" s="31">
-        <v>8</v>
-      </c>
-      <c r="P11" s="33">
+        <v>10</v>
+      </c>
+      <c r="P11" s="32">
         <v>12</v>
       </c>
-      <c r="Q11" s="33">
+      <c r="Q11" s="32">
         <v>12</v>
       </c>
-      <c r="R11" s="33">
+      <c r="R11" s="32">
         <v>13</v>
       </c>
-      <c r="S11" s="38">
-        <v>16</v>
-      </c>
-      <c r="T11" s="33">
+      <c r="S11" s="36">
+        <v>16</v>
+      </c>
+      <c r="T11" s="32">
         <v>15</v>
       </c>
       <c r="U11" s="25">
@@ -1048,8 +1177,104 @@
       <c r="X11" s="25">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="Z11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="31">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="30">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="30">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="30">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="31">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="32">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="31">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="32">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="32">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="32">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="36">
+        <v>1</v>
+      </c>
+      <c r="AQ11" s="32">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="25">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="25">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="25">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="37"/>
+      <c r="AZ11" s="38"/>
+      <c r="BA11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="38"/>
+      <c r="BC11" s="38"/>
+      <c r="BD11" s="38"/>
+      <c r="BE11" s="38"/>
+      <c r="BF11" s="38"/>
+      <c r="BG11" s="38"/>
+      <c r="BH11" s="38"/>
+      <c r="BI11" s="38"/>
+      <c r="BJ11" s="38"/>
+      <c r="BK11" s="38"/>
+      <c r="BL11" s="38"/>
+      <c r="BM11" s="36">
+        <v>1</v>
+      </c>
+      <c r="BN11" s="38"/>
+      <c r="BO11" s="2"/>
+      <c r="BP11" s="2"/>
+      <c r="BQ11" s="2"/>
+      <c r="BR11" s="2"/>
+    </row>
+    <row r="12" spans="3:70" x14ac:dyDescent="0.25">
       <c r="D12" s="11">
         <v>1</v>
       </c>
@@ -1085,7 +1310,7 @@
         <v>13</v>
       </c>
       <c r="P12" s="17">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="22">
         <v>12</v>
@@ -1111,8 +1336,96 @@
       <c r="X12" s="25">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="AA12" s="11">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="25">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="25">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="25">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="25">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="11">
+        <v>1</v>
+      </c>
+      <c r="AY12" s="3"/>
+      <c r="AZ12" s="2"/>
+      <c r="BA12" s="2"/>
+      <c r="BB12" s="17">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="2"/>
+      <c r="BD12" s="2"/>
+      <c r="BE12" s="2"/>
+      <c r="BF12" s="2"/>
+      <c r="BG12" s="2"/>
+      <c r="BH12" s="2"/>
+      <c r="BI12" s="2"/>
+      <c r="BJ12" s="2"/>
+      <c r="BK12" s="2"/>
+      <c r="BL12" s="2"/>
+      <c r="BM12" s="2"/>
+      <c r="BN12" s="25">
+        <v>1</v>
+      </c>
+      <c r="BO12" s="2"/>
+      <c r="BP12" s="2"/>
+      <c r="BQ12" s="2"/>
+      <c r="BR12" s="2"/>
+    </row>
+    <row r="13" spans="3:70" x14ac:dyDescent="0.25">
       <c r="D13" s="11">
         <v>2</v>
       </c>
@@ -1143,7 +1456,7 @@
         <v>14</v>
       </c>
       <c r="O13" s="17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P13" s="22">
         <v>14</v>
@@ -1172,8 +1485,92 @@
       <c r="X13" s="25">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="AA13" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="22">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="22">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="22">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="22">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="25">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="22">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="22">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="22">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="11">
+        <v>2</v>
+      </c>
+      <c r="AY13" s="3"/>
+      <c r="AZ13" s="2"/>
+      <c r="BA13" s="2"/>
+      <c r="BB13" s="2"/>
+      <c r="BC13" s="2"/>
+      <c r="BD13" s="2"/>
+      <c r="BE13" s="2"/>
+      <c r="BF13" s="2"/>
+      <c r="BG13" s="2"/>
+      <c r="BH13" s="2"/>
+      <c r="BI13" s="2"/>
+      <c r="BJ13" s="2"/>
+      <c r="BK13" s="25">
+        <v>1</v>
+      </c>
+      <c r="BL13" s="2"/>
+      <c r="BM13" s="2"/>
+      <c r="BN13" s="2"/>
+      <c r="BO13" s="2"/>
+      <c r="BP13" s="2"/>
+      <c r="BQ13" s="2"/>
+      <c r="BR13" s="2"/>
+    </row>
+    <row r="14" spans="3:70" x14ac:dyDescent="0.25">
       <c r="D14" s="11">
         <v>3</v>
       </c>
@@ -1205,7 +1602,7 @@
         <v>15</v>
       </c>
       <c r="P14" s="17">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="22">
         <v>12</v>
@@ -1231,8 +1628,90 @@
       <c r="X14" s="25">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="AA14" s="11">
+        <v>3</v>
+      </c>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="22">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="22">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="22">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="22">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="25">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="22">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="22">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="25">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="25">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="25">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="11">
+        <v>3</v>
+      </c>
+      <c r="AY14" s="3"/>
+      <c r="AZ14" s="2"/>
+      <c r="BA14" s="2"/>
+      <c r="BB14" s="2"/>
+      <c r="BC14" s="2"/>
+      <c r="BD14" s="2"/>
+      <c r="BE14" s="2"/>
+      <c r="BF14" s="2"/>
+      <c r="BG14" s="2"/>
+      <c r="BH14" s="2"/>
+      <c r="BI14" s="2"/>
+      <c r="BJ14" s="2"/>
+      <c r="BK14" s="2"/>
+      <c r="BL14" s="25">
+        <v>1</v>
+      </c>
+      <c r="BM14" s="2"/>
+      <c r="BN14" s="2"/>
+      <c r="BO14" s="2"/>
+      <c r="BP14" s="2"/>
+      <c r="BQ14" s="2"/>
+      <c r="BR14" s="2"/>
+    </row>
+    <row r="15" spans="3:70" x14ac:dyDescent="0.25">
       <c r="D15" s="15">
         <v>4</v>
       </c>
@@ -1288,8 +1767,92 @@
       <c r="X15" s="25">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="AA15" s="15">
+        <v>4</v>
+      </c>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="25">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="22">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="22">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="22">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="22">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="22">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="25">
+        <v>1</v>
+      </c>
+      <c r="AO15" s="22">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="22">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="25">
+        <v>1</v>
+      </c>
+      <c r="AR15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="15">
+        <v>4</v>
+      </c>
+      <c r="AY15" s="3"/>
+      <c r="AZ15" s="2"/>
+      <c r="BA15" s="2"/>
+      <c r="BB15" s="2"/>
+      <c r="BC15" s="2"/>
+      <c r="BD15" s="2"/>
+      <c r="BE15" s="25">
+        <v>1</v>
+      </c>
+      <c r="BF15" s="2"/>
+      <c r="BG15" s="2"/>
+      <c r="BH15" s="2"/>
+      <c r="BI15" s="2"/>
+      <c r="BJ15" s="2"/>
+      <c r="BK15" s="25">
+        <v>1</v>
+      </c>
+      <c r="BL15" s="2"/>
+      <c r="BM15" s="2"/>
+      <c r="BN15" s="25">
+        <v>1</v>
+      </c>
+      <c r="BO15" s="2"/>
+      <c r="BP15" s="2"/>
+      <c r="BQ15" s="2"/>
+      <c r="BR15" s="2"/>
+    </row>
+    <row r="16" spans="3:70" x14ac:dyDescent="0.25">
       <c r="D16" s="15">
         <v>5</v>
       </c>
@@ -1343,8 +1906,90 @@
       <c r="X16" s="25">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="AA16" s="15">
+        <v>5</v>
+      </c>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="22">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="25">
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="22">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="22">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="22">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="22">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="25">
+        <v>1</v>
+      </c>
+      <c r="AO16" s="25">
+        <v>1</v>
+      </c>
+      <c r="AP16" s="22">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="22">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="15">
+        <v>5</v>
+      </c>
+      <c r="AY16" s="3"/>
+      <c r="AZ16" s="2"/>
+      <c r="BA16" s="2"/>
+      <c r="BB16" s="2"/>
+      <c r="BC16" s="2"/>
+      <c r="BD16" s="2"/>
+      <c r="BE16" s="2"/>
+      <c r="BF16" s="25">
+        <v>1</v>
+      </c>
+      <c r="BG16" s="2"/>
+      <c r="BH16" s="2"/>
+      <c r="BI16" s="2"/>
+      <c r="BJ16" s="2"/>
+      <c r="BK16" s="25">
+        <v>1</v>
+      </c>
+      <c r="BL16" s="25">
+        <v>1</v>
+      </c>
+      <c r="BM16" s="2"/>
+      <c r="BN16" s="2"/>
+      <c r="BO16" s="2"/>
+      <c r="BP16" s="2"/>
+      <c r="BQ16" s="2"/>
+      <c r="BR16" s="2"/>
+    </row>
+    <row r="17" spans="4:70" x14ac:dyDescent="0.25">
       <c r="D17" s="15">
         <v>6</v>
       </c>
@@ -1396,8 +2041,86 @@
       <c r="X17" s="25">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="AA17" s="15">
+        <v>6</v>
+      </c>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="22">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="22">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="22">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="22">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="22">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="22">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="25">
+        <v>1</v>
+      </c>
+      <c r="AP17" s="25">
+        <v>1</v>
+      </c>
+      <c r="AQ17" s="22">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="15">
+        <v>6</v>
+      </c>
+      <c r="AY17" s="3"/>
+      <c r="AZ17" s="2"/>
+      <c r="BA17" s="2"/>
+      <c r="BB17" s="2"/>
+      <c r="BC17" s="2"/>
+      <c r="BD17" s="2"/>
+      <c r="BE17" s="2"/>
+      <c r="BF17" s="2"/>
+      <c r="BG17" s="2"/>
+      <c r="BH17" s="2"/>
+      <c r="BI17" s="2"/>
+      <c r="BJ17" s="2"/>
+      <c r="BK17" s="2"/>
+      <c r="BL17" s="25">
+        <v>1</v>
+      </c>
+      <c r="BM17" s="25">
+        <v>1</v>
+      </c>
+      <c r="BN17" s="2"/>
+      <c r="BO17" s="2"/>
+      <c r="BP17" s="2"/>
+      <c r="BQ17" s="2"/>
+      <c r="BR17" s="2"/>
+    </row>
+    <row r="18" spans="4:70" x14ac:dyDescent="0.25">
       <c r="D18" s="15">
         <v>7</v>
       </c>
@@ -1447,8 +2170,84 @@
       <c r="X18" s="25">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="AA18" s="15">
+        <v>7</v>
+      </c>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="22">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="22">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="22">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="22">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="22">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="22">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="25">
+        <v>1</v>
+      </c>
+      <c r="AQ18" s="25">
+        <v>1</v>
+      </c>
+      <c r="AR18" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="25">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="25">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="25">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="15">
+        <v>7</v>
+      </c>
+      <c r="AY18" s="3"/>
+      <c r="AZ18" s="2"/>
+      <c r="BA18" s="2"/>
+      <c r="BB18" s="2"/>
+      <c r="BC18" s="2"/>
+      <c r="BD18" s="2"/>
+      <c r="BE18" s="2"/>
+      <c r="BF18" s="2"/>
+      <c r="BG18" s="2"/>
+      <c r="BH18" s="2"/>
+      <c r="BI18" s="2"/>
+      <c r="BJ18" s="2"/>
+      <c r="BK18" s="2"/>
+      <c r="BL18" s="2"/>
+      <c r="BM18" s="25">
+        <v>1</v>
+      </c>
+      <c r="BN18" s="25">
+        <v>1</v>
+      </c>
+      <c r="BO18" s="2"/>
+      <c r="BP18" s="2"/>
+      <c r="BQ18" s="2"/>
+      <c r="BR18" s="2"/>
+    </row>
+    <row r="19" spans="4:70" x14ac:dyDescent="0.25">
       <c r="D19" s="19">
         <v>8</v>
       </c>
@@ -1467,7 +2266,7 @@
         <v>16</v>
       </c>
       <c r="O19" s="17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P19" s="25">
         <v>16</v>
@@ -1496,8 +2295,86 @@
       <c r="X19" s="25">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="AA19" s="19">
+        <v>8</v>
+      </c>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="25">
+        <v>1</v>
+      </c>
+      <c r="AL19" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="25">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="25">
+        <v>1</v>
+      </c>
+      <c r="AO19" s="22">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="25">
+        <v>1</v>
+      </c>
+      <c r="AQ19" s="22">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="25">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="25">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="25">
+        <v>0</v>
+      </c>
+      <c r="AX19" s="19">
+        <v>8</v>
+      </c>
+      <c r="AY19" s="3"/>
+      <c r="AZ19" s="2"/>
+      <c r="BA19" s="2"/>
+      <c r="BB19" s="2"/>
+      <c r="BC19" s="2"/>
+      <c r="BD19" s="2"/>
+      <c r="BE19" s="2"/>
+      <c r="BF19" s="2"/>
+      <c r="BG19" s="2"/>
+      <c r="BH19" s="25">
+        <v>1</v>
+      </c>
+      <c r="BI19" s="2"/>
+      <c r="BJ19" s="25">
+        <v>1</v>
+      </c>
+      <c r="BK19" s="25">
+        <v>1</v>
+      </c>
+      <c r="BL19" s="2"/>
+      <c r="BM19" s="25">
+        <v>1</v>
+      </c>
+      <c r="BN19" s="2"/>
+      <c r="BO19" s="2"/>
+      <c r="BP19" s="2"/>
+      <c r="BQ19" s="2"/>
+      <c r="BR19" s="2"/>
+    </row>
+    <row r="20" spans="4:70" x14ac:dyDescent="0.25">
       <c r="D20" s="19">
         <v>9</v>
       </c>
@@ -1517,7 +2394,7 @@
         <v>16</v>
       </c>
       <c r="P20" s="17">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q20" s="22">
         <v>12</v>
@@ -1543,8 +2420,82 @@
       <c r="X20" s="25">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="AA20" s="19">
+        <v>9</v>
+      </c>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="25">
+        <v>1</v>
+      </c>
+      <c r="AM20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="22">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="25">
+        <v>1</v>
+      </c>
+      <c r="AP20" s="22">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="25">
+        <v>1</v>
+      </c>
+      <c r="AR20" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="25">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="25">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="25">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="19">
+        <v>9</v>
+      </c>
+      <c r="AY20" s="3"/>
+      <c r="AZ20" s="2"/>
+      <c r="BA20" s="2"/>
+      <c r="BB20" s="2"/>
+      <c r="BC20" s="2"/>
+      <c r="BD20" s="2"/>
+      <c r="BE20" s="2"/>
+      <c r="BF20" s="2"/>
+      <c r="BG20" s="2"/>
+      <c r="BH20" s="2"/>
+      <c r="BI20" s="25">
+        <v>1</v>
+      </c>
+      <c r="BJ20" s="2"/>
+      <c r="BK20" s="2"/>
+      <c r="BL20" s="25">
+        <v>1</v>
+      </c>
+      <c r="BM20" s="2"/>
+      <c r="BN20" s="25">
+        <v>1</v>
+      </c>
+      <c r="BO20" s="2"/>
+      <c r="BP20" s="2"/>
+      <c r="BQ20" s="2"/>
+      <c r="BR20" s="2"/>
+    </row>
+    <row r="21" spans="4:70" x14ac:dyDescent="0.25">
       <c r="D21" s="19">
         <v>10</v>
       </c>
@@ -1588,8 +2539,80 @@
       <c r="X21" s="25">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="AA21" s="19">
+        <v>10</v>
+      </c>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="25">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="25">
+        <v>1</v>
+      </c>
+      <c r="AO21" s="22">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="25">
+        <v>1</v>
+      </c>
+      <c r="AQ21" s="22">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="25">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="25">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="25">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="19">
+        <v>10</v>
+      </c>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="2"/>
+      <c r="BA21" s="2"/>
+      <c r="BB21" s="2"/>
+      <c r="BC21" s="2"/>
+      <c r="BD21" s="2"/>
+      <c r="BE21" s="2"/>
+      <c r="BF21" s="2"/>
+      <c r="BG21" s="2"/>
+      <c r="BH21" s="2"/>
+      <c r="BI21" s="2"/>
+      <c r="BJ21" s="25">
+        <v>1</v>
+      </c>
+      <c r="BK21" s="25">
+        <v>1</v>
+      </c>
+      <c r="BL21" s="2"/>
+      <c r="BM21" s="25">
+        <v>1</v>
+      </c>
+      <c r="BN21" s="2"/>
+      <c r="BO21" s="2"/>
+      <c r="BP21" s="2"/>
+      <c r="BQ21" s="2"/>
+      <c r="BR21" s="2"/>
+    </row>
+    <row r="22" spans="4:70" x14ac:dyDescent="0.25">
       <c r="D22" s="19">
         <v>11</v>
       </c>
@@ -1631,8 +2654,76 @@
       <c r="X22" s="25">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="AA22" s="19">
+        <v>11</v>
+      </c>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="22">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="25">
+        <v>1</v>
+      </c>
+      <c r="AP22" s="22">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="25">
+        <v>1</v>
+      </c>
+      <c r="AR22" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="25">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="25">
+        <v>0</v>
+      </c>
+      <c r="AU22" s="25">
+        <v>0</v>
+      </c>
+      <c r="AX22" s="19">
+        <v>11</v>
+      </c>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="2"/>
+      <c r="BA22" s="2"/>
+      <c r="BB22" s="2"/>
+      <c r="BC22" s="2"/>
+      <c r="BD22" s="2"/>
+      <c r="BE22" s="2"/>
+      <c r="BF22" s="2"/>
+      <c r="BG22" s="2"/>
+      <c r="BH22" s="2"/>
+      <c r="BI22" s="2"/>
+      <c r="BJ22" s="2"/>
+      <c r="BK22" s="2"/>
+      <c r="BL22" s="25">
+        <v>1</v>
+      </c>
+      <c r="BM22" s="2"/>
+      <c r="BN22" s="25">
+        <v>1</v>
+      </c>
+      <c r="BO22" s="2"/>
+      <c r="BP22" s="2"/>
+      <c r="BQ22" s="2"/>
+      <c r="BR22" s="2"/>
+    </row>
+    <row r="23" spans="4:70" x14ac:dyDescent="0.25">
       <c r="D23" s="21">
         <v>12</v>
       </c>
@@ -1672,8 +2763,76 @@
       <c r="X23" s="25">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="AA23" s="21">
+        <v>12</v>
+      </c>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="22">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="25">
+        <v>1</v>
+      </c>
+      <c r="AP23" s="25">
+        <v>1</v>
+      </c>
+      <c r="AQ23" s="25">
+        <v>1</v>
+      </c>
+      <c r="AR23" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="25">
+        <v>0</v>
+      </c>
+      <c r="AT23" s="25">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="25">
+        <v>0</v>
+      </c>
+      <c r="AX23" s="21">
+        <v>12</v>
+      </c>
+      <c r="AY23" s="3"/>
+      <c r="AZ23" s="2"/>
+      <c r="BA23" s="2"/>
+      <c r="BB23" s="2"/>
+      <c r="BC23" s="2"/>
+      <c r="BD23" s="2"/>
+      <c r="BE23" s="2"/>
+      <c r="BF23" s="2"/>
+      <c r="BG23" s="2"/>
+      <c r="BH23" s="2"/>
+      <c r="BI23" s="2"/>
+      <c r="BJ23" s="2"/>
+      <c r="BK23" s="2"/>
+      <c r="BL23" s="25">
+        <v>1</v>
+      </c>
+      <c r="BM23" s="25">
+        <v>1</v>
+      </c>
+      <c r="BN23" s="25">
+        <v>1</v>
+      </c>
+      <c r="BO23" s="2"/>
+      <c r="BP23" s="2"/>
+      <c r="BQ23" s="2"/>
+      <c r="BR23" s="2"/>
+    </row>
+    <row r="24" spans="4:70" x14ac:dyDescent="0.25">
       <c r="D24" s="21">
         <v>13</v>
       </c>
@@ -1711,8 +2870,72 @@
       <c r="X24" s="25">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="AA24" s="21">
+        <v>13</v>
+      </c>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="22">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="25">
+        <v>1</v>
+      </c>
+      <c r="AQ24" s="25">
+        <v>1</v>
+      </c>
+      <c r="AR24" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="25">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="25">
+        <v>0</v>
+      </c>
+      <c r="AU24" s="25">
+        <v>0</v>
+      </c>
+      <c r="AX24" s="21">
+        <v>13</v>
+      </c>
+      <c r="AY24" s="3"/>
+      <c r="AZ24" s="2"/>
+      <c r="BA24" s="2"/>
+      <c r="BB24" s="2"/>
+      <c r="BC24" s="2"/>
+      <c r="BD24" s="2"/>
+      <c r="BE24" s="2"/>
+      <c r="BF24" s="2"/>
+      <c r="BG24" s="2"/>
+      <c r="BH24" s="2"/>
+      <c r="BI24" s="2"/>
+      <c r="BJ24" s="2"/>
+      <c r="BK24" s="2"/>
+      <c r="BL24" s="2"/>
+      <c r="BM24" s="25">
+        <v>1</v>
+      </c>
+      <c r="BN24" s="25">
+        <v>1</v>
+      </c>
+      <c r="BO24" s="2"/>
+      <c r="BP24" s="2"/>
+      <c r="BQ24" s="2"/>
+      <c r="BR24" s="2"/>
+    </row>
+    <row r="25" spans="4:70" x14ac:dyDescent="0.25">
       <c r="D25" s="21">
         <v>14</v>
       </c>
@@ -1748,8 +2971,68 @@
       <c r="X25" s="25">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="AA25" s="21">
+        <v>14</v>
+      </c>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="22">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="25">
+        <v>1</v>
+      </c>
+      <c r="AR25" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="25">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="25">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="25">
+        <v>0</v>
+      </c>
+      <c r="AX25" s="21">
+        <v>14</v>
+      </c>
+      <c r="AY25" s="3"/>
+      <c r="AZ25" s="2"/>
+      <c r="BA25" s="2"/>
+      <c r="BB25" s="2"/>
+      <c r="BC25" s="2"/>
+      <c r="BD25" s="2"/>
+      <c r="BE25" s="2"/>
+      <c r="BF25" s="2"/>
+      <c r="BG25" s="2"/>
+      <c r="BH25" s="2"/>
+      <c r="BI25" s="2"/>
+      <c r="BJ25" s="2"/>
+      <c r="BK25" s="2"/>
+      <c r="BL25" s="2"/>
+      <c r="BM25" s="2"/>
+      <c r="BN25" s="25">
+        <v>1</v>
+      </c>
+      <c r="BO25" s="2"/>
+      <c r="BP25" s="2"/>
+      <c r="BQ25" s="2"/>
+      <c r="BR25" s="2"/>
+    </row>
+    <row r="26" spans="4:70" x14ac:dyDescent="0.25">
       <c r="D26" s="21">
         <v>15</v>
       </c>
@@ -1783,8 +3066,64 @@
       <c r="X26" s="25">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="AA26" s="21">
+        <v>15</v>
+      </c>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="2"/>
+      <c r="AQ26" s="22">
+        <v>0</v>
+      </c>
+      <c r="AR26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AT26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="25">
+        <v>0</v>
+      </c>
+      <c r="AX26" s="21">
+        <v>15</v>
+      </c>
+      <c r="AY26" s="3"/>
+      <c r="AZ26" s="2"/>
+      <c r="BA26" s="2"/>
+      <c r="BB26" s="2"/>
+      <c r="BC26" s="2"/>
+      <c r="BD26" s="2"/>
+      <c r="BE26" s="2"/>
+      <c r="BF26" s="2"/>
+      <c r="BG26" s="2"/>
+      <c r="BH26" s="2"/>
+      <c r="BI26" s="2"/>
+      <c r="BJ26" s="2"/>
+      <c r="BK26" s="2"/>
+      <c r="BL26" s="2"/>
+      <c r="BM26" s="2"/>
+      <c r="BN26" s="2"/>
+      <c r="BO26" s="2"/>
+      <c r="BP26" s="2"/>
+      <c r="BQ26" s="2"/>
+      <c r="BR26" s="2"/>
+    </row>
+    <row r="27" spans="4:70" x14ac:dyDescent="0.25">
       <c r="D27" s="26">
         <v>16</v>
       </c>
@@ -1816,8 +3155,62 @@
       <c r="X27" s="25">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="AA27" s="26">
+        <v>16</v>
+      </c>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="2"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="2"/>
+      <c r="AQ27" s="2"/>
+      <c r="AR27" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="25">
+        <v>0</v>
+      </c>
+      <c r="AT27" s="25">
+        <v>0</v>
+      </c>
+      <c r="AU27" s="25">
+        <v>0</v>
+      </c>
+      <c r="AX27" s="26">
+        <v>16</v>
+      </c>
+      <c r="AY27" s="3"/>
+      <c r="AZ27" s="2"/>
+      <c r="BA27" s="2"/>
+      <c r="BB27" s="2"/>
+      <c r="BC27" s="2"/>
+      <c r="BD27" s="2"/>
+      <c r="BE27" s="2"/>
+      <c r="BF27" s="2"/>
+      <c r="BG27" s="2"/>
+      <c r="BH27" s="2"/>
+      <c r="BI27" s="2"/>
+      <c r="BJ27" s="2"/>
+      <c r="BK27" s="2"/>
+      <c r="BL27" s="2"/>
+      <c r="BM27" s="2"/>
+      <c r="BN27" s="2"/>
+      <c r="BO27" s="2"/>
+      <c r="BP27" s="2"/>
+      <c r="BQ27" s="2"/>
+      <c r="BR27" s="2"/>
+    </row>
+    <row r="28" spans="4:70" x14ac:dyDescent="0.25">
       <c r="D28" s="26">
         <v>17</v>
       </c>
@@ -1847,8 +3240,60 @@
       <c r="X28" s="25">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="AA28" s="26">
+        <v>17</v>
+      </c>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="2"/>
+      <c r="AQ28" s="2"/>
+      <c r="AR28" s="2"/>
+      <c r="AS28" s="25">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="25">
+        <v>0</v>
+      </c>
+      <c r="AU28" s="25">
+        <v>0</v>
+      </c>
+      <c r="AX28" s="26">
+        <v>17</v>
+      </c>
+      <c r="AY28" s="3"/>
+      <c r="AZ28" s="2"/>
+      <c r="BA28" s="2"/>
+      <c r="BB28" s="2"/>
+      <c r="BC28" s="2"/>
+      <c r="BD28" s="2"/>
+      <c r="BE28" s="2"/>
+      <c r="BF28" s="2"/>
+      <c r="BG28" s="2"/>
+      <c r="BH28" s="2"/>
+      <c r="BI28" s="2"/>
+      <c r="BJ28" s="2"/>
+      <c r="BK28" s="2"/>
+      <c r="BL28" s="2"/>
+      <c r="BM28" s="2"/>
+      <c r="BN28" s="2"/>
+      <c r="BO28" s="2"/>
+      <c r="BP28" s="2"/>
+      <c r="BQ28" s="2"/>
+      <c r="BR28" s="2"/>
+    </row>
+    <row r="29" spans="4:70" x14ac:dyDescent="0.25">
       <c r="D29" s="26">
         <v>18</v>
       </c>
@@ -1876,8 +3321,58 @@
       <c r="X29" s="25">
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="4:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA29" s="26">
+        <v>18</v>
+      </c>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="2"/>
+      <c r="AM29" s="2"/>
+      <c r="AN29" s="2"/>
+      <c r="AO29" s="2"/>
+      <c r="AP29" s="2"/>
+      <c r="AQ29" s="2"/>
+      <c r="AR29" s="2"/>
+      <c r="AS29" s="2"/>
+      <c r="AT29" s="25">
+        <v>0</v>
+      </c>
+      <c r="AU29" s="25">
+        <v>0</v>
+      </c>
+      <c r="AX29" s="26">
+        <v>18</v>
+      </c>
+      <c r="AY29" s="3"/>
+      <c r="AZ29" s="2"/>
+      <c r="BA29" s="2"/>
+      <c r="BB29" s="2"/>
+      <c r="BC29" s="2"/>
+      <c r="BD29" s="2"/>
+      <c r="BE29" s="2"/>
+      <c r="BF29" s="2"/>
+      <c r="BG29" s="2"/>
+      <c r="BH29" s="2"/>
+      <c r="BI29" s="2"/>
+      <c r="BJ29" s="2"/>
+      <c r="BK29" s="2"/>
+      <c r="BL29" s="2"/>
+      <c r="BM29" s="2"/>
+      <c r="BN29" s="2"/>
+      <c r="BO29" s="2"/>
+      <c r="BP29" s="2"/>
+      <c r="BQ29" s="2"/>
+      <c r="BR29" s="2"/>
+    </row>
+    <row r="30" spans="4:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D30" s="24">
         <v>19</v>
       </c>
@@ -1903,6 +3398,4635 @@
       <c r="X30" s="25">
         <v>19</v>
       </c>
+      <c r="AA30" s="24">
+        <v>19</v>
+      </c>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="2"/>
+      <c r="AL30" s="2"/>
+      <c r="AM30" s="2"/>
+      <c r="AN30" s="2"/>
+      <c r="AO30" s="2"/>
+      <c r="AP30" s="2"/>
+      <c r="AQ30" s="2"/>
+      <c r="AR30" s="2"/>
+      <c r="AS30" s="2"/>
+      <c r="AT30" s="2"/>
+      <c r="AU30" s="25">
+        <v>0</v>
+      </c>
+      <c r="AX30" s="24">
+        <v>19</v>
+      </c>
+      <c r="AY30" s="3"/>
+      <c r="AZ30" s="2"/>
+      <c r="BA30" s="2"/>
+      <c r="BB30" s="2"/>
+      <c r="BC30" s="2"/>
+      <c r="BD30" s="2"/>
+      <c r="BE30" s="2"/>
+      <c r="BF30" s="2"/>
+      <c r="BG30" s="2"/>
+      <c r="BH30" s="2"/>
+      <c r="BI30" s="2"/>
+      <c r="BJ30" s="2"/>
+      <c r="BK30" s="2"/>
+      <c r="BL30" s="2"/>
+      <c r="BM30" s="2"/>
+      <c r="BN30" s="2"/>
+      <c r="BO30" s="2"/>
+      <c r="BP30" s="2"/>
+      <c r="BQ30" s="2"/>
+      <c r="BR30" s="2"/>
+    </row>
+    <row r="34" spans="3:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="1"/>
+      <c r="E35" s="12">
+        <v>0</v>
+      </c>
+      <c r="F35" s="13">
+        <v>1</v>
+      </c>
+      <c r="G35" s="13">
+        <v>2</v>
+      </c>
+      <c r="H35" s="13">
+        <v>3</v>
+      </c>
+      <c r="I35" s="16">
+        <v>4</v>
+      </c>
+      <c r="J35" s="16">
+        <v>5</v>
+      </c>
+      <c r="K35" s="16">
+        <v>6</v>
+      </c>
+      <c r="L35" s="16">
+        <v>7</v>
+      </c>
+      <c r="M35" s="20">
+        <v>8</v>
+      </c>
+      <c r="N35" s="20">
+        <v>9</v>
+      </c>
+      <c r="O35" s="20">
+        <v>10</v>
+      </c>
+      <c r="P35" s="20">
+        <v>11</v>
+      </c>
+      <c r="Q35" s="23">
+        <v>12</v>
+      </c>
+      <c r="R35" s="23">
+        <v>13</v>
+      </c>
+      <c r="S35" s="23">
+        <v>14</v>
+      </c>
+      <c r="T35" s="23">
+        <v>15</v>
+      </c>
+      <c r="U35" s="27">
+        <v>16</v>
+      </c>
+      <c r="V35" s="27">
+        <v>17</v>
+      </c>
+      <c r="W35" s="27">
+        <v>18</v>
+      </c>
+      <c r="X35" s="28">
+        <v>19</v>
+      </c>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="13">
+        <v>2</v>
+      </c>
+      <c r="AE35" s="13">
+        <v>3</v>
+      </c>
+      <c r="AF35" s="16">
+        <v>4</v>
+      </c>
+      <c r="AG35" s="16">
+        <v>5</v>
+      </c>
+      <c r="AH35" s="16">
+        <v>6</v>
+      </c>
+      <c r="AI35" s="16">
+        <v>7</v>
+      </c>
+      <c r="AJ35" s="20">
+        <v>8</v>
+      </c>
+      <c r="AK35" s="20">
+        <v>9</v>
+      </c>
+      <c r="AL35" s="20">
+        <v>10</v>
+      </c>
+      <c r="AM35" s="20">
+        <v>11</v>
+      </c>
+      <c r="AN35" s="23">
+        <v>12</v>
+      </c>
+      <c r="AO35" s="23">
+        <v>13</v>
+      </c>
+      <c r="AP35" s="23">
+        <v>14</v>
+      </c>
+      <c r="AQ35" s="23">
+        <v>15</v>
+      </c>
+      <c r="AR35" s="27">
+        <v>16</v>
+      </c>
+      <c r="AS35" s="27">
+        <v>17</v>
+      </c>
+      <c r="AT35" s="27">
+        <v>18</v>
+      </c>
+      <c r="AU35" s="28">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0</v>
+      </c>
+      <c r="E36" s="29">
+        <f>MOD(E11, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="30">
+        <f>MOD(F11, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="G36" s="31">
+        <f>MOD(G11, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="30">
+        <f>MOD(H11, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="I36" s="32">
+        <f>MOD(I11, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="J36" s="32">
+        <f>MOD(J11, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="K36" s="30">
+        <f>MOD(K11, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="L36" s="30">
+        <f>MOD(L11, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="M36" s="31">
+        <f>MOD(M11, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="32">
+        <f>MOD(N11, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="31">
+        <f>MOD(O11, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="P36" s="32">
+        <f>MOD(P11, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="32">
+        <f>MOD(Q11, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="R36" s="32">
+        <f>MOD(R11, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="S36" s="36">
+        <f>MOD(S11, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="T36" s="32">
+        <f>MOD(T11, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="U36" s="25">
+        <f>MOD(U11, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="V36" s="25">
+        <f>MOD(V11, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="W36" s="25">
+        <f>MOD(W11, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="X36" s="25">
+        <f>MOD(X11, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="29">
+        <f>(E11-E36)/4</f>
+        <v>0</v>
+      </c>
+      <c r="AC36" s="30">
+        <f t="shared" ref="AC36:AU36" si="0">(F11-F36)/4</f>
+        <v>1</v>
+      </c>
+      <c r="AD36" s="31">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AE36" s="30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AF36" s="32">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AG36" s="32">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AH36" s="30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AI36" s="30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AJ36" s="31">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AK36" s="32">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AL36" s="31">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AM36" s="32">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AN36" s="32">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AO36" s="32">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AP36" s="36">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AQ36" s="32">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AR36" s="25">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AS36" s="25">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AT36" s="25">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AU36" s="25">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="D37" s="11">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="9">
+        <f>MOD(F12, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="G37" s="14">
+        <f>MOD(G12, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="17">
+        <f>MOD(H12, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="I37" s="14">
+        <f>MOD(I12, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="22">
+        <f>MOD(J12, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="K37" s="22">
+        <f>MOD(K12, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="14">
+        <f>MOD(L12, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="M37" s="22">
+        <f>MOD(M12, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="N37" s="17">
+        <f>MOD(N12, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="O37" s="22">
+        <f>MOD(O12, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="P37" s="17">
+        <f>MOD(P12, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="Q37" s="22">
+        <f>MOD(Q12, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="R37" s="22">
+        <f>MOD(R12, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="S37" s="22">
+        <f>MOD(S12, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="T37" s="25">
+        <f>MOD(T12, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="U37" s="25">
+        <f>MOD(U12, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="V37" s="25">
+        <f>MOD(V12, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="W37" s="25">
+        <f>MOD(W12, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="X37" s="25">
+        <f>MOD(X12, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="AA37" s="11">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="9">
+        <f t="shared" ref="AC37:AC55" si="1">(F12-F37)/4</f>
+        <v>0</v>
+      </c>
+      <c r="AD37" s="14">
+        <f t="shared" ref="AD37:AD55" si="2">(G12-G37)/4</f>
+        <v>1</v>
+      </c>
+      <c r="AE37" s="17">
+        <f t="shared" ref="AE37:AE55" si="3">(H12-H37)/4</f>
+        <v>2</v>
+      </c>
+      <c r="AF37" s="14">
+        <f t="shared" ref="AF37:AF55" si="4">(I12-I37)/4</f>
+        <v>1</v>
+      </c>
+      <c r="AG37" s="22">
+        <f t="shared" ref="AG37:AG55" si="5">(J12-J37)/4</f>
+        <v>3</v>
+      </c>
+      <c r="AH37" s="22">
+        <f t="shared" ref="AH37:AH55" si="6">(K12-K37)/4</f>
+        <v>3</v>
+      </c>
+      <c r="AI37" s="14">
+        <f t="shared" ref="AI37:AI55" si="7">(L12-L37)/4</f>
+        <v>1</v>
+      </c>
+      <c r="AJ37" s="22">
+        <f t="shared" ref="AJ37:AJ55" si="8">(M12-M37)/4</f>
+        <v>3</v>
+      </c>
+      <c r="AK37" s="17">
+        <f t="shared" ref="AK37:AK55" si="9">(N12-N37)/4</f>
+        <v>2</v>
+      </c>
+      <c r="AL37" s="22">
+        <f t="shared" ref="AL37:AL55" si="10">(O12-O37)/4</f>
+        <v>3</v>
+      </c>
+      <c r="AM37" s="17">
+        <f t="shared" ref="AM37:AM55" si="11">(P12-P37)/4</f>
+        <v>2</v>
+      </c>
+      <c r="AN37" s="22">
+        <f t="shared" ref="AN37:AN55" si="12">(Q12-Q37)/4</f>
+        <v>3</v>
+      </c>
+      <c r="AO37" s="22">
+        <f t="shared" ref="AO37:AO55" si="13">(R12-R37)/4</f>
+        <v>3</v>
+      </c>
+      <c r="AP37" s="22">
+        <f t="shared" ref="AP37:AP55" si="14">(S12-S37)/4</f>
+        <v>3</v>
+      </c>
+      <c r="AQ37" s="25">
+        <f t="shared" ref="AQ37:AQ55" si="15">(T12-T37)/4</f>
+        <v>4</v>
+      </c>
+      <c r="AR37" s="25">
+        <f t="shared" ref="AR37:AR55" si="16">(U12-U37)/4</f>
+        <v>4</v>
+      </c>
+      <c r="AS37" s="25">
+        <f t="shared" ref="AS37:AS55" si="17">(V12-V37)/4</f>
+        <v>4</v>
+      </c>
+      <c r="AT37" s="25">
+        <f t="shared" ref="AT37:AT55" si="18">(W12-W37)/4</f>
+        <v>4</v>
+      </c>
+      <c r="AU37" s="25">
+        <f t="shared" ref="AU37:AU55" si="19">(X12-X37)/4</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="D38" s="11">
+        <v>2</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="9">
+        <f>MOD(G13, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="H38" s="14">
+        <f>MOD(H13, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="I38" s="14">
+        <f>MOD(I13, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="14">
+        <f>MOD(J13, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="K38" s="22">
+        <f>MOD(K13, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="L38" s="22">
+        <f>MOD(L13, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="M38" s="17">
+        <f>MOD(M13, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="22">
+        <f>MOD(N13, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="O38" s="17">
+        <f>MOD(O13, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="P38" s="22">
+        <f>MOD(P13, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="Q38" s="25">
+        <f>MOD(Q13, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="R38" s="22">
+        <f>MOD(R13, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="S38" s="22">
+        <f>MOD(S13, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="T38" s="22">
+        <f>MOD(T13, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="U38" s="25">
+        <f>MOD(U13, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="V38" s="25">
+        <f>MOD(V13, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="W38" s="25">
+        <f>MOD(W13, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="X38" s="25">
+        <f>MOD(X13, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="AA38" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="2"/>
+      <c r="AD38" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE38" s="14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AF38" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AG38" s="14">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AH38" s="22">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AI38" s="22">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AJ38" s="17">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AK38" s="22">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="AL38" s="17">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="AM38" s="22">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="AN38" s="25">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="AO38" s="22">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="AP38" s="22">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="AQ38" s="22">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="AR38" s="25">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="AS38" s="25">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="AT38" s="25">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="AU38" s="25">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="D39" s="11">
+        <v>3</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="9">
+        <f>MOD(H14, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="I39" s="22">
+        <f>MOD(I14, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="J39" s="14">
+        <f>MOD(J14, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="K39" s="14">
+        <f>MOD(K14, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="L39" s="22">
+        <f>MOD(L14, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="22">
+        <f>MOD(M14, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="N39" s="17">
+        <f>MOD(N14, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="O39" s="22">
+        <f>MOD(O14, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="P39" s="17">
+        <f>MOD(P14, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="Q39" s="22">
+        <f>MOD(Q14, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="R39" s="25">
+        <f>MOD(R14, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="S39" s="22">
+        <f>MOD(S14, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="T39" s="22">
+        <f>MOD(T14, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="U39" s="25">
+        <f>MOD(U14, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="V39" s="25">
+        <f>MOD(V14, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="W39" s="25">
+        <f>MOD(W14, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="X39" s="25">
+        <f>MOD(X14, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="AA39" s="11">
+        <v>3</v>
+      </c>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF39" s="22">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AG39" s="14">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AH39" s="14">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AI39" s="22">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AJ39" s="22">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AK39" s="17">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AL39" s="22">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="AM39" s="17">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AN39" s="22">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="AO39" s="25">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="AP39" s="22">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="AQ39" s="22">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="AR39" s="25">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="AS39" s="25">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="AT39" s="25">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="AU39" s="25">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="D40" s="15">
+        <v>4</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="14">
+        <f>MOD(I15, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="22">
+        <f>MOD(J15, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="K40" s="25">
+        <f>MOD(K15, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="L40" s="22">
+        <f>MOD(L15, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="M40" s="22">
+        <f>MOD(M15, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="N40" s="22">
+        <f>MOD(N15, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="O40" s="22">
+        <f>MOD(O15, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="P40" s="22">
+        <f>MOD(P15, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="Q40" s="25">
+        <f>MOD(Q15, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="R40" s="22">
+        <f>MOD(R15, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="S40" s="22">
+        <f>MOD(S15, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="T40" s="25">
+        <f>MOD(T15, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="U40" s="25">
+        <f>MOD(U15, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="V40" s="25">
+        <f>MOD(V15, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="W40" s="25">
+        <f>MOD(W15, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="X40" s="25">
+        <f>MOD(X15, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="AA40" s="15">
+        <v>4</v>
+      </c>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AG40" s="22">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="AH40" s="25">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AI40" s="22">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AJ40" s="22">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AK40" s="22">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="AL40" s="22">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="AM40" s="22">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="AN40" s="25">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="AO40" s="22">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="AP40" s="22">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="AQ40" s="25">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="AR40" s="25">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="AS40" s="25">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="AT40" s="25">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="AU40" s="25">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="D41" s="15">
+        <v>5</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="14">
+        <f>MOD(J16, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="K41" s="22">
+        <f>MOD(K16, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="L41" s="25">
+        <f>MOD(L16, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="22">
+        <f>MOD(M16, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="N41" s="22">
+        <f>MOD(N16, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="O41" s="22">
+        <f>MOD(O16, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="P41" s="22">
+        <f>MOD(P16, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="Q41" s="25">
+        <f>MOD(Q16, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="R41" s="25">
+        <f>MOD(R16, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="S41" s="22">
+        <f>MOD(S16, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="T41" s="22">
+        <f>MOD(T16, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="U41" s="25">
+        <f>MOD(U16, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="V41" s="25">
+        <f>MOD(V16, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="W41" s="25">
+        <f>MOD(W16, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="X41" s="25">
+        <f>MOD(X16, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="AA41" s="15">
+        <v>5</v>
+      </c>
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="2"/>
+      <c r="AD41" s="2"/>
+      <c r="AE41" s="2"/>
+      <c r="AF41" s="2"/>
+      <c r="AG41" s="14">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AH41" s="22">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AI41" s="25">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="AJ41" s="22">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AK41" s="22">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="AL41" s="22">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="AM41" s="22">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="AN41" s="25">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="AO41" s="25">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="AP41" s="22">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="AQ41" s="22">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="AR41" s="25">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="AS41" s="25">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="AT41" s="25">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="AU41" s="25">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="D42" s="15">
+        <v>6</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="14">
+        <f>MOD(K17, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="L42" s="22">
+        <f>MOD(L17, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="22">
+        <f>MOD(M17, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="N42" s="22">
+        <f>MOD(N17, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="O42" s="22">
+        <f>MOD(O17, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="P42" s="22">
+        <f>MOD(P17, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="22">
+        <f>MOD(Q17, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="R42" s="25">
+        <f>MOD(R17, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="S42" s="25">
+        <f>MOD(S17, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="T42" s="22">
+        <f>MOD(T17, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="U42" s="25">
+        <f>MOD(U17, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="V42" s="25">
+        <f>MOD(V17, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="W42" s="25">
+        <f>MOD(W17, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="X42" s="25">
+        <f>MOD(X17, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="AA42" s="15">
+        <v>6</v>
+      </c>
+      <c r="AB42" s="3"/>
+      <c r="AC42" s="2"/>
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="2"/>
+      <c r="AG42" s="2"/>
+      <c r="AH42" s="14">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AI42" s="22">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AJ42" s="22">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AK42" s="22">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="AL42" s="22">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="AM42" s="22">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="AN42" s="22">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="AO42" s="25">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="AP42" s="25">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="AQ42" s="22">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="AR42" s="25">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="AS42" s="25">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="AT42" s="25">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="AU42" s="25">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="D43" s="15">
+        <v>7</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="14">
+        <f>MOD(L18, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="M43" s="22">
+        <f>MOD(M18, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="N43" s="22">
+        <f>MOD(N18, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="O43" s="22">
+        <f>MOD(O18, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="P43" s="22">
+        <f>MOD(P18, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="22">
+        <f>MOD(Q18, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="R43" s="22">
+        <f>MOD(R18, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="S43" s="25">
+        <f>MOD(S18, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="T43" s="25">
+        <f>MOD(T18, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="U43" s="25">
+        <f>MOD(U18, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="V43" s="25">
+        <f>MOD(V18, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="W43" s="25">
+        <f>MOD(W18, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="X43" s="25">
+        <f>MOD(X18, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="AA43" s="15">
+        <v>7</v>
+      </c>
+      <c r="AB43" s="3"/>
+      <c r="AC43" s="2"/>
+      <c r="AD43" s="2"/>
+      <c r="AE43" s="2"/>
+      <c r="AF43" s="2"/>
+      <c r="AG43" s="2"/>
+      <c r="AH43" s="2"/>
+      <c r="AI43" s="14">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AJ43" s="22">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AK43" s="22">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="AL43" s="22">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="AM43" s="22">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="AN43" s="22">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="AO43" s="22">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="AP43" s="25">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="AQ43" s="25">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="AR43" s="25">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="AS43" s="25">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="AT43" s="25">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="AU43" s="25">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="D44" s="19">
+        <v>8</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="17">
+        <f>MOD(M19, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="25">
+        <f>MOD(N19, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="O44" s="17">
+        <f>MOD(O19, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="P44" s="25">
+        <f>MOD(P19, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="25">
+        <f>MOD(Q19, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="R44" s="22">
+        <f>MOD(R19, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="S44" s="25">
+        <f>MOD(S19, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="T44" s="22">
+        <f>MOD(T19, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="U44" s="25">
+        <f>MOD(U19, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="V44" s="25">
+        <f>MOD(V19, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="W44" s="25">
+        <f>MOD(W19, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="X44" s="25">
+        <f>MOD(X19, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="AA44" s="19">
+        <v>8</v>
+      </c>
+      <c r="AB44" s="3"/>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="2"/>
+      <c r="AH44" s="2"/>
+      <c r="AI44" s="2"/>
+      <c r="AJ44" s="17">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AK44" s="25">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="AL44" s="17">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="AM44" s="25">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="AN44" s="25">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="AO44" s="22">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="AP44" s="25">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="AQ44" s="22">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="AR44" s="25">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="AS44" s="25">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="AT44" s="25">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="AU44" s="25">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="D45" s="19">
+        <v>9</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="17">
+        <f>MOD(N20, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="O45" s="25">
+        <f>MOD(O20, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="P45" s="17">
+        <f>MOD(P20, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="Q45" s="22">
+        <f>MOD(Q20, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="R45" s="25">
+        <f>MOD(R20, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="S45" s="22">
+        <f>MOD(S20, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="T45" s="25">
+        <f>MOD(T20, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="U45" s="25">
+        <f>MOD(U20, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="V45" s="25">
+        <f>MOD(V20, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="W45" s="25">
+        <f>MOD(W20, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="X45" s="25">
+        <f>MOD(X20, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="AA45" s="19">
+        <v>9</v>
+      </c>
+      <c r="AB45" s="3"/>
+      <c r="AC45" s="2"/>
+      <c r="AD45" s="2"/>
+      <c r="AE45" s="2"/>
+      <c r="AF45" s="2"/>
+      <c r="AG45" s="2"/>
+      <c r="AH45" s="2"/>
+      <c r="AI45" s="2"/>
+      <c r="AJ45" s="2"/>
+      <c r="AK45" s="17">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AL45" s="25">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="AM45" s="17">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AN45" s="22">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="AO45" s="25">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="AP45" s="22">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="AQ45" s="25">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="AR45" s="25">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="AS45" s="25">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="AT45" s="25">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="AU45" s="25">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="D46" s="19">
+        <v>10</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="17">
+        <f>MOD(O21, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="P46" s="25">
+        <f>MOD(P21, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="25">
+        <f>MOD(Q21, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="R46" s="22">
+        <f>MOD(R21, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="S46" s="25">
+        <f>MOD(S21, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="T46" s="22">
+        <f>MOD(T21, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="U46" s="25">
+        <f>MOD(U21, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="V46" s="25">
+        <f>MOD(V21, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="W46" s="25">
+        <f>MOD(W21, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="X46" s="25">
+        <f>MOD(X21, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="AA46" s="19">
+        <v>10</v>
+      </c>
+      <c r="AB46" s="3"/>
+      <c r="AC46" s="2"/>
+      <c r="AD46" s="2"/>
+      <c r="AE46" s="2"/>
+      <c r="AF46" s="2"/>
+      <c r="AG46" s="2"/>
+      <c r="AH46" s="2"/>
+      <c r="AI46" s="2"/>
+      <c r="AJ46" s="2"/>
+      <c r="AK46" s="2"/>
+      <c r="AL46" s="17">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="AM46" s="25">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="AN46" s="25">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="AO46" s="22">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="AP46" s="25">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="AQ46" s="22">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="AR46" s="25">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="AS46" s="25">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="AT46" s="25">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="AU46" s="25">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="D47" s="19">
+        <v>11</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="17">
+        <f>MOD(P22, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="Q47" s="22">
+        <f>MOD(Q22, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="R47" s="25">
+        <f>MOD(R22, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="S47" s="22">
+        <f>MOD(S22, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="T47" s="25">
+        <f>MOD(T22, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="U47" s="25">
+        <f>MOD(U22, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="V47" s="25">
+        <f>MOD(V22, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="W47" s="25">
+        <f>MOD(W22, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="X47" s="25">
+        <f>MOD(X22, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="AA47" s="19">
+        <v>11</v>
+      </c>
+      <c r="AB47" s="3"/>
+      <c r="AC47" s="2"/>
+      <c r="AD47" s="2"/>
+      <c r="AE47" s="2"/>
+      <c r="AF47" s="2"/>
+      <c r="AG47" s="2"/>
+      <c r="AH47" s="2"/>
+      <c r="AI47" s="2"/>
+      <c r="AJ47" s="2"/>
+      <c r="AK47" s="2"/>
+      <c r="AL47" s="2"/>
+      <c r="AM47" s="17">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AN47" s="22">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="AO47" s="25">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="AP47" s="22">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="AQ47" s="25">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="AR47" s="25">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="AS47" s="25">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="AT47" s="25">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="AU47" s="25">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="D48" s="21">
+        <v>12</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="22">
+        <f>MOD(Q23, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="R48" s="25">
+        <f>MOD(R23, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="S48" s="25">
+        <f>MOD(S23, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="T48" s="25">
+        <f>MOD(T23, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="25">
+        <f>MOD(U23, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="V48" s="25">
+        <f>MOD(V23, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="W48" s="25">
+        <f>MOD(W23, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="X48" s="25">
+        <f>MOD(X23, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="AA48" s="21">
+        <v>12</v>
+      </c>
+      <c r="AB48" s="3"/>
+      <c r="AC48" s="2"/>
+      <c r="AD48" s="2"/>
+      <c r="AE48" s="2"/>
+      <c r="AF48" s="2"/>
+      <c r="AG48" s="2"/>
+      <c r="AH48" s="2"/>
+      <c r="AI48" s="2"/>
+      <c r="AJ48" s="2"/>
+      <c r="AK48" s="2"/>
+      <c r="AL48" s="2"/>
+      <c r="AM48" s="2"/>
+      <c r="AN48" s="22">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="AO48" s="25">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="AP48" s="25">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="AQ48" s="25">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="AR48" s="25">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="AS48" s="25">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="AT48" s="25">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="AU48" s="25">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="D49" s="21">
+        <v>13</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="22">
+        <f>MOD(R24, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="S49" s="25">
+        <f>MOD(S24, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="T49" s="25">
+        <f>MOD(T24, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="U49" s="25">
+        <f>MOD(U24, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="V49" s="25">
+        <f>MOD(V24, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="W49" s="25">
+        <f>MOD(W24, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="X49" s="25">
+        <f>MOD(X24, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="AA49" s="21">
+        <v>13</v>
+      </c>
+      <c r="AB49" s="3"/>
+      <c r="AC49" s="2"/>
+      <c r="AD49" s="2"/>
+      <c r="AE49" s="2"/>
+      <c r="AF49" s="2"/>
+      <c r="AG49" s="2"/>
+      <c r="AH49" s="2"/>
+      <c r="AI49" s="2"/>
+      <c r="AJ49" s="2"/>
+      <c r="AK49" s="2"/>
+      <c r="AL49" s="2"/>
+      <c r="AM49" s="2"/>
+      <c r="AN49" s="2"/>
+      <c r="AO49" s="22">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="AP49" s="25">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="AQ49" s="25">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="AR49" s="25">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="AS49" s="25">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="AT49" s="25">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="AU49" s="25">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="D50" s="21">
+        <v>14</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="22">
+        <f>MOD(S25, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="T50" s="25">
+        <f>MOD(T25, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="U50" s="25">
+        <f>MOD(U25, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="V50" s="25">
+        <f>MOD(V25, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="W50" s="25">
+        <f>MOD(W25, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="X50" s="25">
+        <f>MOD(X25, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="AA50" s="21">
+        <v>14</v>
+      </c>
+      <c r="AB50" s="3"/>
+      <c r="AC50" s="2"/>
+      <c r="AD50" s="2"/>
+      <c r="AE50" s="2"/>
+      <c r="AF50" s="2"/>
+      <c r="AG50" s="2"/>
+      <c r="AH50" s="2"/>
+      <c r="AI50" s="2"/>
+      <c r="AJ50" s="2"/>
+      <c r="AK50" s="2"/>
+      <c r="AL50" s="2"/>
+      <c r="AM50" s="2"/>
+      <c r="AN50" s="2"/>
+      <c r="AO50" s="2"/>
+      <c r="AP50" s="22">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="AQ50" s="25">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="AR50" s="25">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="AS50" s="25">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="AT50" s="25">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="AU50" s="25">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="D51" s="21">
+        <v>15</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="22">
+        <f>MOD(T26, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="U51" s="25">
+        <f>MOD(U26, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="V51" s="25">
+        <f>MOD(V26, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="W51" s="25">
+        <f>MOD(W26, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="X51" s="25">
+        <f>MOD(X26, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="AA51" s="21">
+        <v>15</v>
+      </c>
+      <c r="AB51" s="3"/>
+      <c r="AC51" s="2"/>
+      <c r="AD51" s="2"/>
+      <c r="AE51" s="2"/>
+      <c r="AF51" s="2"/>
+      <c r="AG51" s="2"/>
+      <c r="AH51" s="2"/>
+      <c r="AI51" s="2"/>
+      <c r="AJ51" s="2"/>
+      <c r="AK51" s="2"/>
+      <c r="AL51" s="2"/>
+      <c r="AM51" s="2"/>
+      <c r="AN51" s="2"/>
+      <c r="AO51" s="2"/>
+      <c r="AP51" s="2"/>
+      <c r="AQ51" s="22">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="AR51" s="25">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="AS51" s="25">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="AT51" s="25">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="AU51" s="25">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="D52" s="26">
+        <v>16</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="25">
+        <f>MOD(U27, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="V52" s="25">
+        <f>MOD(V27, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="W52" s="25">
+        <f>MOD(W27, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="X52" s="25">
+        <f>MOD(X27, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="AA52" s="26">
+        <v>16</v>
+      </c>
+      <c r="AB52" s="3"/>
+      <c r="AC52" s="2"/>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="2"/>
+      <c r="AF52" s="2"/>
+      <c r="AG52" s="2"/>
+      <c r="AH52" s="2"/>
+      <c r="AI52" s="2"/>
+      <c r="AJ52" s="2"/>
+      <c r="AK52" s="2"/>
+      <c r="AL52" s="2"/>
+      <c r="AM52" s="2"/>
+      <c r="AN52" s="2"/>
+      <c r="AO52" s="2"/>
+      <c r="AP52" s="2"/>
+      <c r="AQ52" s="2"/>
+      <c r="AR52" s="25">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="AS52" s="25">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="AT52" s="25">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="AU52" s="25">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="D53" s="26">
+        <v>17</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="25">
+        <f>MOD(V28, 4)</f>
+        <v>1</v>
+      </c>
+      <c r="W53" s="25">
+        <f>MOD(W28, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="X53" s="25">
+        <f>MOD(X28, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="AA53" s="26">
+        <v>17</v>
+      </c>
+      <c r="AB53" s="3"/>
+      <c r="AC53" s="2"/>
+      <c r="AD53" s="2"/>
+      <c r="AE53" s="2"/>
+      <c r="AF53" s="2"/>
+      <c r="AG53" s="2"/>
+      <c r="AH53" s="2"/>
+      <c r="AI53" s="2"/>
+      <c r="AJ53" s="2"/>
+      <c r="AK53" s="2"/>
+      <c r="AL53" s="2"/>
+      <c r="AM53" s="2"/>
+      <c r="AN53" s="2"/>
+      <c r="AO53" s="2"/>
+      <c r="AP53" s="2"/>
+      <c r="AQ53" s="2"/>
+      <c r="AR53" s="2"/>
+      <c r="AS53" s="25">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="AT53" s="25">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="AU53" s="25">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="D54" s="26">
+        <v>18</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="25">
+        <f>MOD(W29, 4)</f>
+        <v>2</v>
+      </c>
+      <c r="X54" s="25">
+        <f>MOD(X29, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="AA54" s="26">
+        <v>18</v>
+      </c>
+      <c r="AB54" s="3"/>
+      <c r="AC54" s="2"/>
+      <c r="AD54" s="2"/>
+      <c r="AE54" s="2"/>
+      <c r="AF54" s="2"/>
+      <c r="AG54" s="2"/>
+      <c r="AH54" s="2"/>
+      <c r="AI54" s="2"/>
+      <c r="AJ54" s="2"/>
+      <c r="AK54" s="2"/>
+      <c r="AL54" s="2"/>
+      <c r="AM54" s="2"/>
+      <c r="AN54" s="2"/>
+      <c r="AO54" s="2"/>
+      <c r="AP54" s="2"/>
+      <c r="AQ54" s="2"/>
+      <c r="AR54" s="2"/>
+      <c r="AS54" s="2"/>
+      <c r="AT54" s="25">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="AU54" s="25">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D55" s="24">
+        <v>19</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="25">
+        <f>MOD(X30, 4)</f>
+        <v>3</v>
+      </c>
+      <c r="AA55" s="24">
+        <v>19</v>
+      </c>
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="2"/>
+      <c r="AD55" s="2"/>
+      <c r="AE55" s="2"/>
+      <c r="AF55" s="2"/>
+      <c r="AG55" s="2"/>
+      <c r="AH55" s="2"/>
+      <c r="AI55" s="2"/>
+      <c r="AJ55" s="2"/>
+      <c r="AK55" s="2"/>
+      <c r="AL55" s="2"/>
+      <c r="AM55" s="2"/>
+      <c r="AN55" s="2"/>
+      <c r="AO55" s="2"/>
+      <c r="AP55" s="2"/>
+      <c r="AQ55" s="2"/>
+      <c r="AR55" s="2"/>
+      <c r="AS55" s="2"/>
+      <c r="AT55" s="2"/>
+      <c r="AU55" s="25">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D60" s="1"/>
+      <c r="E60" s="12">
+        <v>0</v>
+      </c>
+      <c r="F60" s="13">
+        <v>1</v>
+      </c>
+      <c r="G60" s="13">
+        <v>2</v>
+      </c>
+      <c r="H60" s="13">
+        <v>3</v>
+      </c>
+      <c r="I60" s="16">
+        <v>4</v>
+      </c>
+      <c r="J60" s="16">
+        <v>5</v>
+      </c>
+      <c r="K60" s="16">
+        <v>6</v>
+      </c>
+      <c r="L60" s="16">
+        <v>7</v>
+      </c>
+      <c r="M60" s="20">
+        <v>8</v>
+      </c>
+      <c r="N60" s="20">
+        <v>9</v>
+      </c>
+      <c r="O60" s="20">
+        <v>10</v>
+      </c>
+      <c r="P60" s="20">
+        <v>11</v>
+      </c>
+      <c r="Q60" s="23">
+        <v>12</v>
+      </c>
+      <c r="R60" s="23">
+        <v>13</v>
+      </c>
+      <c r="S60" s="23">
+        <v>14</v>
+      </c>
+      <c r="T60" s="23">
+        <v>15</v>
+      </c>
+      <c r="U60" s="27">
+        <v>16</v>
+      </c>
+      <c r="V60" s="27">
+        <v>17</v>
+      </c>
+      <c r="W60" s="27">
+        <v>18</v>
+      </c>
+      <c r="X60" s="28">
+        <v>19</v>
+      </c>
+      <c r="AA60" s="39"/>
+      <c r="AB60" s="39"/>
+      <c r="AC60" s="39"/>
+    </row>
+    <row r="61" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="10">
+        <v>0</v>
+      </c>
+      <c r="E61" s="29">
+        <f>IF(OR(E$60=$D61, E$60&gt;=16, AND(MOD(E$60-$D61, 2)=0, AND(E$60&gt;=8, E$60&lt;=11), OR($D61&lt;=3, $D61&gt;=8)), AND(E$60&gt;=4, E$60&lt;=7, $D61&lt;=3, OR(ABS(E$60-$D61-5)=2, ABS(E$60-$D61-4)=2)), AND(E$60&gt;=12, E$60&lt;=15, OR(AND($D61&lt;=3, NOT(ABS(E$60-$D61-12)=2)), AND($D61&gt;=4, $D61&lt;=7, NOT(OR(ABS(E$60-$D61-9)=2, E$60-$D61=8))), AND($D61&gt;=8, $D61&lt;=11, MOD(E$60-$D61, 2)=1)))), E$60, IF(E$60&lt;=3, IF(E$60-$D61=2, MOD(E$60, 2)+8, IF(E$60+$D61=3, 6-2*$D61, 8-E$60)), IF(OR(E$60&gt;=12, $D61&gt;=8, AND($D61&gt;=4, E$60&lt;=7, E$60-$D61=2)), 16, IF(E$60&lt;=7, IF($D61&lt;=3, MOD(2*E$60-$D61+1, 4)+12, IF(E$60+$D61=11, 16-E$60+$D61, 19-E$60)), IF($D61&gt;=4, 1-MOD(E$60, 2)+IF(OR($D61+MOD(E$60, 2)=5, $D61+MOD(E$60, 2)=6),2, 0)+12, $D61+12)))))</f>
+        <v>0</v>
+      </c>
+      <c r="F61" s="30">
+        <f t="shared" ref="F61:X74" si="20">IF(OR(F$60=$D61, F$60&gt;=16, AND(MOD(F$60-$D61, 2)=0, AND(F$60&gt;=8, F$60&lt;=11), OR($D61&lt;=3, $D61&gt;=8)), AND(F$60&gt;=4, F$60&lt;=7, $D61&lt;=3, OR(ABS(F$60-$D61-5)=2, ABS(F$60-$D61-4)=2)), AND(F$60&gt;=12, F$60&lt;=15, OR(AND($D61&lt;=3, NOT(ABS(F$60-$D61-12)=2)), AND($D61&gt;=4, $D61&lt;=7, NOT(OR(ABS(F$60-$D61-9)=2, F$60-$D61=8))), AND($D61&gt;=8, $D61&lt;=11, MOD(F$60-$D61, 2)=1)))), F$60, IF(F$60&lt;=3, IF(F$60-$D61=2, MOD(F$60, 2)+8, IF(F$60+$D61=3, 6-2*$D61, 8-F$60)), IF(OR(F$60&gt;=12, $D61&gt;=8, AND($D61&gt;=4, F$60&lt;=7, F$60-$D61=2)), 16, IF(F$60&lt;=7, IF($D61&lt;=3, MOD(2*F$60-$D61+1, 4)+12, IF(F$60+$D61=11, 16-F$60+$D61, 19-F$60)), IF($D61&gt;=4, 1-MOD(F$60, 2)+IF(OR($D61+MOD(F$60, 2)=5, $D61+MOD(F$60, 2)=6),2, 0)+12, $D61+12)))))</f>
+        <v>7</v>
+      </c>
+      <c r="G61" s="31">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="H61" s="30">
+        <f t="shared" si="20"/>
+        <v>6</v>
+      </c>
+      <c r="I61" s="32">
+        <f t="shared" si="20"/>
+        <v>13</v>
+      </c>
+      <c r="J61" s="32">
+        <f t="shared" si="20"/>
+        <v>15</v>
+      </c>
+      <c r="K61" s="30">
+        <f t="shared" si="20"/>
+        <v>6</v>
+      </c>
+      <c r="L61" s="30">
+        <f t="shared" si="20"/>
+        <v>7</v>
+      </c>
+      <c r="M61" s="31">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="N61" s="32">
+        <f t="shared" si="20"/>
+        <v>12</v>
+      </c>
+      <c r="O61" s="31">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="P61" s="32">
+        <f t="shared" si="20"/>
+        <v>12</v>
+      </c>
+      <c r="Q61" s="32">
+        <f t="shared" si="20"/>
+        <v>12</v>
+      </c>
+      <c r="R61" s="32">
+        <f t="shared" si="20"/>
+        <v>13</v>
+      </c>
+      <c r="S61" s="36">
+        <f t="shared" si="20"/>
+        <v>16</v>
+      </c>
+      <c r="T61" s="32">
+        <f t="shared" si="20"/>
+        <v>15</v>
+      </c>
+      <c r="U61" s="25">
+        <f t="shared" si="20"/>
+        <v>16</v>
+      </c>
+      <c r="V61" s="25">
+        <f t="shared" si="20"/>
+        <v>17</v>
+      </c>
+      <c r="W61" s="25">
+        <f t="shared" si="20"/>
+        <v>18</v>
+      </c>
+      <c r="X61" s="25">
+        <f t="shared" si="20"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="D62" s="11">
+        <v>1</v>
+      </c>
+      <c r="E62" s="3">
+        <f t="shared" ref="E62:T80" si="21">IF(OR(E$60=$D62, E$60&gt;=16, AND(MOD(E$60-$D62, 2)=0, AND(E$60&gt;=8, E$60&lt;=11), OR($D62&lt;=3, $D62&gt;=8)), AND(E$60&gt;=4, E$60&lt;=7, $D62&lt;=3, OR(ABS(E$60-$D62-5)=2, ABS(E$60-$D62-4)=2)), AND(E$60&gt;=12, E$60&lt;=15, OR(AND($D62&lt;=3, NOT(ABS(E$60-$D62-12)=2)), AND($D62&gt;=4, $D62&lt;=7, NOT(OR(ABS(E$60-$D62-9)=2, E$60-$D62=8))), AND($D62&gt;=8, $D62&lt;=11, MOD(E$60-$D62, 2)=1)))), E$60, IF(E$60&lt;=3, IF(E$60-$D62=2, MOD(E$60, 2)+8, IF(E$60+$D62=3, 6-2*$D62, 8-E$60)), IF(OR(E$60&gt;=12, $D62&gt;=8, AND($D62&gt;=4, E$60&lt;=7, E$60-$D62=2)), 16, IF(E$60&lt;=7, IF($D62&lt;=3, MOD(2*E$60-$D62+1, 4)+12, IF(E$60+$D62=11, 16-E$60+$D62, 19-E$60)), IF($D62&gt;=4, 1-MOD(E$60, 2)+IF(OR($D62+MOD(E$60, 2)=5, $D62+MOD(E$60, 2)=6),2, 0)+12, $D62+12)))))</f>
+        <v>8</v>
+      </c>
+      <c r="F62" s="9">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="G62" s="14">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="H62" s="17">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="I62" s="14">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="J62" s="22">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="K62" s="22">
+        <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="L62" s="14">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="M62" s="22">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="N62" s="17">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="O62" s="22">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="P62" s="17">
+        <f t="shared" si="21"/>
+        <v>11</v>
+      </c>
+      <c r="Q62" s="22">
+        <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="R62" s="22">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="S62" s="22">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="T62" s="25">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="U62" s="25">
+        <f t="shared" ref="U62:X80" si="22">IF(OR(U$60=$D62, U$60&gt;=16, AND(MOD(U$60-$D62, 2)=0, AND(U$60&gt;=8, U$60&lt;=11), OR($D62&lt;=3, $D62&gt;=8)), AND(U$60&gt;=4, U$60&lt;=7, $D62&lt;=3, OR(ABS(U$60-$D62-5)=2, ABS(U$60-$D62-4)=2)), AND(U$60&gt;=12, U$60&lt;=15, OR(AND($D62&lt;=3, NOT(ABS(U$60-$D62-12)=2)), AND($D62&gt;=4, $D62&lt;=7, NOT(OR(ABS(U$60-$D62-9)=2, U$60-$D62=8))), AND($D62&gt;=8, $D62&lt;=11, MOD(U$60-$D62, 2)=1)))), U$60, IF(U$60&lt;=3, IF(U$60-$D62=2, MOD(U$60, 2)+8, IF(U$60+$D62=3, 6-2*$D62, 8-U$60)), IF(OR(U$60&gt;=12, $D62&gt;=8, AND($D62&gt;=4, U$60&lt;=7, U$60-$D62=2)), 16, IF(U$60&lt;=7, IF($D62&lt;=3, MOD(2*U$60-$D62+1, 4)+12, IF(U$60+$D62=11, 16-U$60+$D62, 19-U$60)), IF($D62&gt;=4, 1-MOD(U$60, 2)+IF(OR($D62+MOD(U$60, 2)=5, $D62+MOD(U$60, 2)=6),2, 0)+12, $D62+12)))))</f>
+        <v>16</v>
+      </c>
+      <c r="V62" s="25">
+        <f t="shared" si="22"/>
+        <v>17</v>
+      </c>
+      <c r="W62" s="25">
+        <f t="shared" si="22"/>
+        <v>18</v>
+      </c>
+      <c r="X62" s="25">
+        <f t="shared" si="22"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="D63" s="11">
+        <v>2</v>
+      </c>
+      <c r="E63" s="3">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="G63" s="9">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="H63" s="14">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="I63" s="14">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="J63" s="14">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="K63" s="22">
+        <f t="shared" si="21"/>
+        <v>15</v>
+      </c>
+      <c r="L63" s="22">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="M63" s="17">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="N63" s="22">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="O63" s="17">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="P63" s="22">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="Q63" s="25">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="R63" s="22">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="S63" s="22">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="T63" s="22">
+        <f t="shared" si="21"/>
+        <v>15</v>
+      </c>
+      <c r="U63" s="25">
+        <f t="shared" si="22"/>
+        <v>16</v>
+      </c>
+      <c r="V63" s="25">
+        <f t="shared" si="22"/>
+        <v>17</v>
+      </c>
+      <c r="W63" s="25">
+        <f t="shared" si="22"/>
+        <v>18</v>
+      </c>
+      <c r="X63" s="25">
+        <f t="shared" si="22"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="D64" s="11">
+        <v>3</v>
+      </c>
+      <c r="E64" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F64" s="2">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="G64" s="2">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="H64" s="9">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="I64" s="22">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="J64" s="14">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="K64" s="14">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="L64" s="22">
+        <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="M64" s="22">
+        <f t="shared" si="21"/>
+        <v>15</v>
+      </c>
+      <c r="N64" s="17">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="O64" s="22">
+        <f t="shared" si="21"/>
+        <v>15</v>
+      </c>
+      <c r="P64" s="17">
+        <f t="shared" si="21"/>
+        <v>11</v>
+      </c>
+      <c r="Q64" s="22">
+        <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="R64" s="25">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="S64" s="22">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="T64" s="22">
+        <f t="shared" si="21"/>
+        <v>15</v>
+      </c>
+      <c r="U64" s="25">
+        <f t="shared" si="22"/>
+        <v>16</v>
+      </c>
+      <c r="V64" s="25">
+        <f t="shared" si="22"/>
+        <v>17</v>
+      </c>
+      <c r="W64" s="25">
+        <f t="shared" si="22"/>
+        <v>18</v>
+      </c>
+      <c r="X64" s="25">
+        <f t="shared" si="22"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D65" s="15">
+        <v>4</v>
+      </c>
+      <c r="E65" s="3">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="F65" s="2">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="G65" s="2">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="H65" s="2">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="I65" s="14">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="J65" s="22">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="K65" s="25">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="L65" s="22">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="M65" s="22">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="N65" s="22">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="O65" s="22">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="P65" s="22">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="Q65" s="25">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="R65" s="22">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="S65" s="22">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="T65" s="25">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="U65" s="25">
+        <f t="shared" si="22"/>
+        <v>16</v>
+      </c>
+      <c r="V65" s="25">
+        <f t="shared" si="22"/>
+        <v>17</v>
+      </c>
+      <c r="W65" s="25">
+        <f t="shared" si="22"/>
+        <v>18</v>
+      </c>
+      <c r="X65" s="25">
+        <f t="shared" si="22"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D66" s="15">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="F66" s="2">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="G66" s="2">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="H66" s="2">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="I66" s="2">
+        <f t="shared" si="21"/>
+        <v>15</v>
+      </c>
+      <c r="J66" s="14">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="K66" s="22">
+        <f t="shared" si="21"/>
+        <v>15</v>
+      </c>
+      <c r="L66" s="25">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="M66" s="22">
+        <f t="shared" si="21"/>
+        <v>15</v>
+      </c>
+      <c r="N66" s="22">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="O66" s="22">
+        <f t="shared" si="21"/>
+        <v>15</v>
+      </c>
+      <c r="P66" s="22">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="Q66" s="25">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="R66" s="25">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="S66" s="22">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="T66" s="22">
+        <f t="shared" si="21"/>
+        <v>15</v>
+      </c>
+      <c r="U66" s="25">
+        <f t="shared" si="22"/>
+        <v>16</v>
+      </c>
+      <c r="V66" s="25">
+        <f t="shared" si="22"/>
+        <v>17</v>
+      </c>
+      <c r="W66" s="25">
+        <f t="shared" si="22"/>
+        <v>18</v>
+      </c>
+      <c r="X66" s="25">
+        <f t="shared" si="22"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D67" s="15">
+        <v>6</v>
+      </c>
+      <c r="E67" s="3">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="F67" s="2">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="G67" s="2">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="H67" s="2">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="I67" s="2">
+        <f t="shared" si="21"/>
+        <v>15</v>
+      </c>
+      <c r="J67" s="2">
+        <f t="shared" si="21"/>
+        <v>17</v>
+      </c>
+      <c r="K67" s="14">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="L67" s="22">
+        <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="M67" s="22">
+        <f t="shared" si="21"/>
+        <v>15</v>
+      </c>
+      <c r="N67" s="22">
+        <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="O67" s="22">
+        <f t="shared" si="21"/>
+        <v>15</v>
+      </c>
+      <c r="P67" s="22">
+        <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="Q67" s="22">
+        <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="R67" s="25">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="S67" s="25">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="T67" s="22">
+        <f t="shared" si="21"/>
+        <v>15</v>
+      </c>
+      <c r="U67" s="25">
+        <f t="shared" si="22"/>
+        <v>16</v>
+      </c>
+      <c r="V67" s="25">
+        <f t="shared" si="22"/>
+        <v>17</v>
+      </c>
+      <c r="W67" s="25">
+        <f t="shared" si="22"/>
+        <v>18</v>
+      </c>
+      <c r="X67" s="25">
+        <f t="shared" si="22"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D68" s="15">
+        <v>7</v>
+      </c>
+      <c r="E68" s="3">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="F68" s="2">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="G68" s="2">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="H68" s="2">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="I68" s="2">
+        <f t="shared" si="21"/>
+        <v>19</v>
+      </c>
+      <c r="J68" s="2">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="K68" s="2">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="L68" s="14">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="M68" s="22">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="N68" s="22">
+        <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="O68" s="22">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="P68" s="22">
+        <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="Q68" s="22">
+        <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="R68" s="22">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="S68" s="25">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="T68" s="25">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="U68" s="25">
+        <f t="shared" si="22"/>
+        <v>16</v>
+      </c>
+      <c r="V68" s="25">
+        <f t="shared" si="22"/>
+        <v>17</v>
+      </c>
+      <c r="W68" s="25">
+        <f t="shared" si="22"/>
+        <v>18</v>
+      </c>
+      <c r="X68" s="25">
+        <f t="shared" si="22"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D69" s="19">
+        <v>8</v>
+      </c>
+      <c r="E69" s="3">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="F69" s="2">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="G69" s="2">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="H69" s="2">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="I69" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="J69" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="K69" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="L69" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="M69" s="17">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="N69" s="25">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="O69" s="17">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="P69" s="25">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="Q69" s="25">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="R69" s="22">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="S69" s="25">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="T69" s="22">
+        <f t="shared" si="21"/>
+        <v>15</v>
+      </c>
+      <c r="U69" s="25">
+        <f t="shared" si="22"/>
+        <v>16</v>
+      </c>
+      <c r="V69" s="25">
+        <f t="shared" si="22"/>
+        <v>17</v>
+      </c>
+      <c r="W69" s="25">
+        <f t="shared" si="22"/>
+        <v>18</v>
+      </c>
+      <c r="X69" s="25">
+        <f t="shared" si="22"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D70" s="19">
+        <v>9</v>
+      </c>
+      <c r="E70" s="3">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="G70" s="2">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="H70" s="2">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="I70" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="J70" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="K70" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="L70" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="M70" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="N70" s="17">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="O70" s="25">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="P70" s="17">
+        <f t="shared" si="21"/>
+        <v>11</v>
+      </c>
+      <c r="Q70" s="22">
+        <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="R70" s="25">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="S70" s="22">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="T70" s="25">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="U70" s="25">
+        <f t="shared" si="22"/>
+        <v>16</v>
+      </c>
+      <c r="V70" s="25">
+        <f t="shared" si="22"/>
+        <v>17</v>
+      </c>
+      <c r="W70" s="25">
+        <f t="shared" si="22"/>
+        <v>18</v>
+      </c>
+      <c r="X70" s="25">
+        <f t="shared" si="22"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D71" s="19">
+        <v>10</v>
+      </c>
+      <c r="E71" s="3">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="F71" s="2">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="G71" s="2">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="H71" s="2">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="I71" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="J71" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="K71" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="L71" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="M71" s="2">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="N71" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="O71" s="17">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="P71" s="25">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="Q71" s="25">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="R71" s="22">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="S71" s="25">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="T71" s="22">
+        <f t="shared" si="21"/>
+        <v>15</v>
+      </c>
+      <c r="U71" s="25">
+        <f t="shared" si="22"/>
+        <v>16</v>
+      </c>
+      <c r="V71" s="25">
+        <f t="shared" si="22"/>
+        <v>17</v>
+      </c>
+      <c r="W71" s="25">
+        <f t="shared" si="22"/>
+        <v>18</v>
+      </c>
+      <c r="X71" s="25">
+        <f t="shared" si="22"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D72" s="19">
+        <v>11</v>
+      </c>
+      <c r="E72" s="3">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="F72" s="2">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="G72" s="2">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="H72" s="2">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="I72" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="J72" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="K72" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="L72" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="M72" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="N72" s="2">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="O72" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="P72" s="17">
+        <f t="shared" si="21"/>
+        <v>11</v>
+      </c>
+      <c r="Q72" s="22">
+        <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="R72" s="25">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="S72" s="22">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="T72" s="25">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="U72" s="25">
+        <f t="shared" si="22"/>
+        <v>16</v>
+      </c>
+      <c r="V72" s="25">
+        <f t="shared" si="22"/>
+        <v>17</v>
+      </c>
+      <c r="W72" s="25">
+        <f t="shared" si="22"/>
+        <v>18</v>
+      </c>
+      <c r="X72" s="25">
+        <f t="shared" si="22"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D73" s="21">
+        <v>12</v>
+      </c>
+      <c r="E73" s="3">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="F73" s="2">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="G73" s="2">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="H73" s="2">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="I73" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="J73" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="K73" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="L73" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="M73" s="2">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="N73" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="O73" s="2">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="P73" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="Q73" s="22">
+        <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="R73" s="25">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="S73" s="25">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="T73" s="25">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="U73" s="25">
+        <f t="shared" si="22"/>
+        <v>16</v>
+      </c>
+      <c r="V73" s="25">
+        <f t="shared" si="22"/>
+        <v>17</v>
+      </c>
+      <c r="W73" s="25">
+        <f t="shared" si="22"/>
+        <v>18</v>
+      </c>
+      <c r="X73" s="25">
+        <f t="shared" si="22"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D74" s="21">
+        <v>13</v>
+      </c>
+      <c r="E74" s="3">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="F74" s="2">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="G74" s="2">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="H74" s="2">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="I74" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="J74" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="K74" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="L74" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="M74" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="N74" s="2">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="O74" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="P74" s="2">
+        <f t="shared" si="21"/>
+        <v>11</v>
+      </c>
+      <c r="Q74" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="R74" s="22">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="S74" s="25">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="T74" s="25">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="U74" s="25">
+        <f t="shared" si="22"/>
+        <v>16</v>
+      </c>
+      <c r="V74" s="25">
+        <f t="shared" si="22"/>
+        <v>17</v>
+      </c>
+      <c r="W74" s="25">
+        <f t="shared" si="22"/>
+        <v>18</v>
+      </c>
+      <c r="X74" s="25">
+        <f t="shared" si="22"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D75" s="21">
+        <v>14</v>
+      </c>
+      <c r="E75" s="3">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="F75" s="2">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="G75" s="2">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="H75" s="2">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="I75" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="J75" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="K75" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="L75" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="M75" s="2">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="N75" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="O75" s="2">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="P75" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="Q75" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="R75" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="S75" s="22">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="T75" s="25">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="U75" s="25">
+        <f t="shared" si="22"/>
+        <v>16</v>
+      </c>
+      <c r="V75" s="25">
+        <f t="shared" si="22"/>
+        <v>17</v>
+      </c>
+      <c r="W75" s="25">
+        <f t="shared" si="22"/>
+        <v>18</v>
+      </c>
+      <c r="X75" s="25">
+        <f t="shared" si="22"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D76" s="21">
+        <v>15</v>
+      </c>
+      <c r="E76" s="3">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="F76" s="2">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="G76" s="2">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="H76" s="2">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="I76" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="J76" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="K76" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="L76" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="M76" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="N76" s="2">
+        <f t="shared" si="21"/>
+        <v>9</v>
+      </c>
+      <c r="O76" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="P76" s="2">
+        <f t="shared" si="21"/>
+        <v>11</v>
+      </c>
+      <c r="Q76" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="R76" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="S76" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="T76" s="22">
+        <f t="shared" si="21"/>
+        <v>15</v>
+      </c>
+      <c r="U76" s="25">
+        <f t="shared" si="22"/>
+        <v>16</v>
+      </c>
+      <c r="V76" s="25">
+        <f t="shared" si="22"/>
+        <v>17</v>
+      </c>
+      <c r="W76" s="25">
+        <f t="shared" si="22"/>
+        <v>18</v>
+      </c>
+      <c r="X76" s="25">
+        <f t="shared" si="22"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D77" s="26">
+        <v>16</v>
+      </c>
+      <c r="E77" s="3">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="F77" s="2">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="G77" s="2">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="H77" s="2">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="I77" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="J77" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="K77" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="L77" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="M77" s="2">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="N77" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="O77" s="2">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="P77" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="Q77" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="R77" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="S77" s="2">
+        <f t="shared" si="21"/>
+        <v>16</v>
+      </c>
+      <c r="T77" s="2">
+        <f t="shared" ref="T77:X80" si="23">IF(OR(T$60=$D77, T$60&gt;=16, AND(MOD(T$60-$D77, 2)=0, AND(T$60&gt;=8, T$60&lt;=11), OR($D77&lt;=3, $D77&gt;=8)), AND(T$60&gt;=4, T$60&lt;=7, $D77&lt;=3, OR(ABS(T$60-$D77-5)=2, ABS(T$60-$D77-4)=2)), AND(T$60&gt;=12, T$60&lt;=15, OR(AND($D77&lt;=3, NOT(ABS(T$60-$D77-12)=2)), AND($D77&gt;=4, $D77&lt;=7, NOT(OR(ABS(T$60-$D77-9)=2, T$60-$D77=8))), AND($D77&gt;=8, $D77&lt;=11, MOD(T$60-$D77, 2)=1)))), T$60, IF(T$60&lt;=3, IF(T$60-$D77=2, MOD(T$60, 2)+8, IF(T$60+$D77=3, 6-2*$D77, 8-T$60)), IF(OR(T$60&gt;=12, $D77&gt;=8, AND($D77&gt;=4, T$60&lt;=7, T$60-$D77=2)), 16, IF(T$60&lt;=7, IF($D77&lt;=3, MOD(2*T$60-$D77+1, 4)+12, IF(T$60+$D77=11, 16-T$60+$D77, 19-T$60)), IF($D77&gt;=4, 1-MOD(T$60, 2)+IF(OR($D77+MOD(T$60, 2)=5, $D77+MOD(T$60, 2)=6),2, 0)+12, $D77+12)))))</f>
+        <v>16</v>
+      </c>
+      <c r="U77" s="25">
+        <f t="shared" si="23"/>
+        <v>16</v>
+      </c>
+      <c r="V77" s="25">
+        <f t="shared" si="23"/>
+        <v>17</v>
+      </c>
+      <c r="W77" s="25">
+        <f t="shared" si="23"/>
+        <v>18</v>
+      </c>
+      <c r="X77" s="25">
+        <f t="shared" si="23"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D78" s="26">
+        <v>17</v>
+      </c>
+      <c r="E78" s="3">
+        <f t="shared" ref="E78:T80" si="24">IF(OR(E$60=$D78, E$60&gt;=16, AND(MOD(E$60-$D78, 2)=0, AND(E$60&gt;=8, E$60&lt;=11), OR($D78&lt;=3, $D78&gt;=8)), AND(E$60&gt;=4, E$60&lt;=7, $D78&lt;=3, OR(ABS(E$60-$D78-5)=2, ABS(E$60-$D78-4)=2)), AND(E$60&gt;=12, E$60&lt;=15, OR(AND($D78&lt;=3, NOT(ABS(E$60-$D78-12)=2)), AND($D78&gt;=4, $D78&lt;=7, NOT(OR(ABS(E$60-$D78-9)=2, E$60-$D78=8))), AND($D78&gt;=8, $D78&lt;=11, MOD(E$60-$D78, 2)=1)))), E$60, IF(E$60&lt;=3, IF(E$60-$D78=2, MOD(E$60, 2)+8, IF(E$60+$D78=3, 6-2*$D78, 8-E$60)), IF(OR(E$60&gt;=12, $D78&gt;=8, AND($D78&gt;=4, E$60&lt;=7, E$60-$D78=2)), 16, IF(E$60&lt;=7, IF($D78&lt;=3, MOD(2*E$60-$D78+1, 4)+12, IF(E$60+$D78=11, 16-E$60+$D78, 19-E$60)), IF($D78&gt;=4, 1-MOD(E$60, 2)+IF(OR($D78+MOD(E$60, 2)=5, $D78+MOD(E$60, 2)=6),2, 0)+12, $D78+12)))))</f>
+        <v>8</v>
+      </c>
+      <c r="F78" s="2">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="G78" s="2">
+        <f t="shared" si="24"/>
+        <v>6</v>
+      </c>
+      <c r="H78" s="2">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="I78" s="2">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="J78" s="2">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="K78" s="2">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="L78" s="2">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="M78" s="2">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="N78" s="2">
+        <f t="shared" si="24"/>
+        <v>9</v>
+      </c>
+      <c r="O78" s="2">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="P78" s="2">
+        <f t="shared" si="24"/>
+        <v>11</v>
+      </c>
+      <c r="Q78" s="2">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="R78" s="2">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="S78" s="2">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="T78" s="2">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="U78" s="2">
+        <f t="shared" si="23"/>
+        <v>16</v>
+      </c>
+      <c r="V78" s="25">
+        <f t="shared" si="23"/>
+        <v>17</v>
+      </c>
+      <c r="W78" s="25">
+        <f t="shared" si="23"/>
+        <v>18</v>
+      </c>
+      <c r="X78" s="25">
+        <f t="shared" si="23"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="D79" s="26">
+        <v>18</v>
+      </c>
+      <c r="E79" s="3">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="F79" s="2">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="G79" s="2">
+        <f t="shared" si="24"/>
+        <v>6</v>
+      </c>
+      <c r="H79" s="2">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="I79" s="2">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="J79" s="2">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="K79" s="2">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="L79" s="2">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="M79" s="2">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="N79" s="2">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="O79" s="2">
+        <f t="shared" si="24"/>
+        <v>10</v>
+      </c>
+      <c r="P79" s="2">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="Q79" s="2">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="R79" s="2">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="S79" s="2">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="T79" s="2">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="U79" s="2">
+        <f t="shared" si="23"/>
+        <v>16</v>
+      </c>
+      <c r="V79" s="2">
+        <f t="shared" si="23"/>
+        <v>17</v>
+      </c>
+      <c r="W79" s="25">
+        <f t="shared" si="23"/>
+        <v>18</v>
+      </c>
+      <c r="X79" s="25">
+        <f t="shared" si="23"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="4:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D80" s="24">
+        <v>19</v>
+      </c>
+      <c r="E80" s="3">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="F80" s="2">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="G80" s="2">
+        <f t="shared" si="24"/>
+        <v>6</v>
+      </c>
+      <c r="H80" s="2">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="I80" s="2">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="J80" s="2">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="K80" s="2">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="L80" s="2">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="M80" s="2">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="N80" s="2">
+        <f t="shared" si="24"/>
+        <v>9</v>
+      </c>
+      <c r="O80" s="2">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="P80" s="2">
+        <f t="shared" si="24"/>
+        <v>11</v>
+      </c>
+      <c r="Q80" s="2">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="R80" s="2">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="S80" s="2">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="T80" s="2">
+        <f t="shared" si="24"/>
+        <v>16</v>
+      </c>
+      <c r="U80" s="2">
+        <f t="shared" si="23"/>
+        <v>16</v>
+      </c>
+      <c r="V80" s="2">
+        <f t="shared" si="23"/>
+        <v>17</v>
+      </c>
+      <c r="W80" s="2">
+        <f t="shared" si="23"/>
+        <v>18</v>
+      </c>
+      <c r="X80" s="25">
+        <f t="shared" si="23"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E82" s="39"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="39"/>
+      <c r="H82" s="39"/>
+      <c r="I82" s="39"/>
+      <c r="J82" s="39"/>
+      <c r="K82" s="39"/>
+      <c r="L82" s="39"/>
+      <c r="M82" s="39"/>
+      <c r="N82" s="39"/>
+      <c r="O82" s="39"/>
+      <c r="P82" s="39"/>
+      <c r="Q82" s="39"/>
+      <c r="R82" s="39"/>
+      <c r="S82" s="39"/>
+      <c r="T82" s="39"/>
+      <c r="U82" s="39"/>
+      <c r="V82" s="39"/>
+      <c r="W82" s="39"/>
+      <c r="X82" s="39"/>
+    </row>
+    <row r="83" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E83" s="39"/>
+      <c r="F83" s="39"/>
+      <c r="G83" s="39"/>
+      <c r="H83" s="39"/>
+      <c r="I83" s="39"/>
+      <c r="J83" s="39"/>
+      <c r="K83" s="39"/>
+      <c r="L83" s="39"/>
+      <c r="M83" s="39"/>
+      <c r="N83" s="39"/>
+      <c r="O83" s="39"/>
+      <c r="P83" s="39"/>
+      <c r="Q83" s="39"/>
+      <c r="R83" s="39"/>
+      <c r="S83" s="39"/>
+      <c r="T83" s="39"/>
+      <c r="U83" s="39"/>
+      <c r="V83" s="39"/>
+      <c r="W83" s="39"/>
+      <c r="X83" s="39"/>
+    </row>
+    <row r="84" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E84" s="39"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="39"/>
+      <c r="H84" s="39"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="39"/>
+      <c r="K84" s="39"/>
+      <c r="L84" s="39"/>
+      <c r="M84" s="39"/>
+      <c r="N84" s="39"/>
+      <c r="O84" s="39"/>
+      <c r="P84" s="39"/>
+      <c r="Q84" s="39"/>
+      <c r="R84" s="39"/>
+      <c r="S84" s="39"/>
+      <c r="T84" s="39"/>
+      <c r="U84" s="39"/>
+      <c r="V84" s="39"/>
+      <c r="W84" s="39"/>
+      <c r="X84" s="39"/>
+    </row>
+    <row r="85" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E85" s="39"/>
+      <c r="F85" s="39"/>
+      <c r="G85" s="39"/>
+      <c r="H85" s="39"/>
+      <c r="I85" s="39"/>
+      <c r="J85" s="39"/>
+      <c r="K85" s="39"/>
+      <c r="L85" s="39"/>
+      <c r="M85" s="39"/>
+      <c r="N85" s="39"/>
+      <c r="O85" s="39"/>
+      <c r="P85" s="39"/>
+      <c r="Q85" s="39"/>
+      <c r="R85" s="39"/>
+      <c r="S85" s="39"/>
+      <c r="T85" s="39"/>
+      <c r="U85" s="39"/>
+      <c r="V85" s="39"/>
+      <c r="W85" s="39"/>
+      <c r="X85" s="39"/>
+    </row>
+    <row r="86" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E86" s="39"/>
+      <c r="F86" s="39"/>
+      <c r="G86" s="39"/>
+      <c r="H86" s="39"/>
+      <c r="I86" s="39"/>
+      <c r="J86" s="39"/>
+      <c r="K86" s="39"/>
+      <c r="L86" s="39"/>
+      <c r="M86" s="39"/>
+      <c r="N86" s="39"/>
+      <c r="O86" s="39"/>
+      <c r="P86" s="39"/>
+      <c r="Q86" s="39"/>
+      <c r="R86" s="39"/>
+      <c r="S86" s="39"/>
+      <c r="T86" s="39"/>
+      <c r="U86" s="39"/>
+      <c r="V86" s="39"/>
+      <c r="W86" s="39"/>
+      <c r="X86" s="39"/>
+    </row>
+    <row r="87" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E87" s="39"/>
+      <c r="F87" s="39"/>
+      <c r="G87" s="39"/>
+      <c r="H87" s="39"/>
+      <c r="I87" s="39"/>
+      <c r="J87" s="39"/>
+      <c r="K87" s="39"/>
+      <c r="L87" s="39"/>
+      <c r="M87" s="39"/>
+      <c r="N87" s="39"/>
+      <c r="O87" s="39"/>
+      <c r="P87" s="39"/>
+      <c r="Q87" s="39"/>
+      <c r="R87" s="39"/>
+      <c r="S87" s="39"/>
+      <c r="T87" s="39"/>
+      <c r="U87" s="39"/>
+      <c r="V87" s="39"/>
+      <c r="W87" s="39"/>
+      <c r="X87" s="39"/>
+    </row>
+    <row r="88" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E88" s="39"/>
+      <c r="F88" s="39"/>
+      <c r="G88" s="39"/>
+      <c r="H88" s="39"/>
+      <c r="I88" s="39"/>
+      <c r="J88" s="39"/>
+      <c r="K88" s="39"/>
+      <c r="L88" s="39"/>
+      <c r="M88" s="39"/>
+      <c r="N88" s="39"/>
+      <c r="O88" s="39"/>
+      <c r="P88" s="39"/>
+      <c r="Q88" s="39"/>
+      <c r="R88" s="39"/>
+      <c r="S88" s="39"/>
+      <c r="T88" s="39"/>
+      <c r="U88" s="39"/>
+      <c r="V88" s="39"/>
+      <c r="W88" s="39"/>
+      <c r="X88" s="39"/>
+    </row>
+    <row r="89" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E89" s="39"/>
+      <c r="F89" s="39"/>
+      <c r="G89" s="39"/>
+      <c r="H89" s="39"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="39"/>
+      <c r="K89" s="39"/>
+      <c r="L89" s="39"/>
+      <c r="M89" s="39"/>
+      <c r="N89" s="39"/>
+      <c r="O89" s="39"/>
+      <c r="P89" s="39"/>
+      <c r="Q89" s="39"/>
+      <c r="R89" s="39"/>
+      <c r="S89" s="39"/>
+      <c r="T89" s="39"/>
+      <c r="U89" s="39"/>
+      <c r="V89" s="39"/>
+      <c r="W89" s="39"/>
+      <c r="X89" s="39"/>
+    </row>
+    <row r="90" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E90" s="39"/>
+      <c r="F90" s="39"/>
+      <c r="G90" s="39"/>
+      <c r="H90" s="39"/>
+      <c r="I90" s="39"/>
+      <c r="J90" s="39"/>
+      <c r="K90" s="39"/>
+      <c r="L90" s="39"/>
+      <c r="M90" s="39"/>
+      <c r="N90" s="39"/>
+      <c r="O90" s="39"/>
+      <c r="P90" s="39"/>
+      <c r="Q90" s="39"/>
+      <c r="R90" s="39"/>
+      <c r="S90" s="39"/>
+      <c r="T90" s="39"/>
+      <c r="U90" s="39"/>
+      <c r="V90" s="39"/>
+      <c r="W90" s="39"/>
+      <c r="X90" s="39"/>
+    </row>
+    <row r="91" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E91" s="39"/>
+      <c r="F91" s="39"/>
+      <c r="G91" s="39"/>
+      <c r="H91" s="39"/>
+      <c r="I91" s="39"/>
+      <c r="J91" s="39"/>
+      <c r="K91" s="39"/>
+      <c r="L91" s="39"/>
+      <c r="M91" s="39"/>
+      <c r="N91" s="39"/>
+      <c r="O91" s="39"/>
+      <c r="P91" s="39"/>
+      <c r="Q91" s="39"/>
+      <c r="R91" s="39"/>
+      <c r="S91" s="39"/>
+      <c r="T91" s="39"/>
+      <c r="U91" s="39"/>
+      <c r="V91" s="39"/>
+      <c r="W91" s="39"/>
+      <c r="X91" s="39"/>
+    </row>
+    <row r="92" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E92" s="39"/>
+      <c r="F92" s="39"/>
+      <c r="G92" s="39"/>
+      <c r="H92" s="39"/>
+      <c r="I92" s="39"/>
+      <c r="J92" s="39"/>
+      <c r="K92" s="39"/>
+      <c r="L92" s="39"/>
+      <c r="M92" s="39"/>
+      <c r="N92" s="39"/>
+      <c r="O92" s="39"/>
+      <c r="P92" s="39"/>
+      <c r="Q92" s="39"/>
+      <c r="R92" s="39"/>
+      <c r="S92" s="39"/>
+      <c r="T92" s="39"/>
+      <c r="U92" s="39"/>
+      <c r="V92" s="39"/>
+      <c r="W92" s="39"/>
+      <c r="X92" s="39"/>
+    </row>
+    <row r="93" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E93" s="39"/>
+      <c r="F93" s="39"/>
+      <c r="G93" s="39"/>
+      <c r="H93" s="39"/>
+      <c r="I93" s="39"/>
+      <c r="J93" s="39"/>
+      <c r="K93" s="39"/>
+      <c r="L93" s="39"/>
+      <c r="M93" s="39"/>
+      <c r="N93" s="39"/>
+      <c r="O93" s="39"/>
+      <c r="P93" s="39"/>
+      <c r="Q93" s="39"/>
+      <c r="R93" s="39"/>
+      <c r="S93" s="39"/>
+      <c r="T93" s="39"/>
+      <c r="U93" s="39"/>
+      <c r="V93" s="39"/>
+      <c r="W93" s="39"/>
+      <c r="X93" s="39"/>
+    </row>
+    <row r="94" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E94" s="39"/>
+      <c r="F94" s="39"/>
+      <c r="G94" s="39"/>
+      <c r="H94" s="39"/>
+      <c r="I94" s="39"/>
+      <c r="J94" s="39"/>
+      <c r="K94" s="39"/>
+      <c r="L94" s="39"/>
+      <c r="M94" s="39"/>
+      <c r="N94" s="39"/>
+      <c r="O94" s="39"/>
+      <c r="P94" s="39"/>
+      <c r="Q94" s="39"/>
+      <c r="R94" s="39"/>
+      <c r="S94" s="39"/>
+      <c r="T94" s="39"/>
+      <c r="U94" s="39"/>
+      <c r="V94" s="39"/>
+      <c r="W94" s="39"/>
+      <c r="X94" s="39"/>
+    </row>
+    <row r="95" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E95" s="39"/>
+      <c r="F95" s="39"/>
+      <c r="G95" s="39"/>
+      <c r="H95" s="39"/>
+      <c r="I95" s="39"/>
+      <c r="J95" s="39"/>
+      <c r="K95" s="39"/>
+      <c r="L95" s="39"/>
+      <c r="M95" s="39"/>
+      <c r="N95" s="39"/>
+      <c r="O95" s="39"/>
+      <c r="P95" s="39"/>
+      <c r="Q95" s="39"/>
+      <c r="R95" s="39"/>
+      <c r="S95" s="39"/>
+      <c r="T95" s="39"/>
+      <c r="U95" s="39"/>
+      <c r="V95" s="39"/>
+      <c r="W95" s="39"/>
+      <c r="X95" s="39"/>
+    </row>
+    <row r="96" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E96" s="39"/>
+      <c r="F96" s="39"/>
+      <c r="G96" s="39"/>
+      <c r="H96" s="39"/>
+      <c r="I96" s="39"/>
+      <c r="J96" s="39"/>
+      <c r="K96" s="39"/>
+      <c r="L96" s="39"/>
+      <c r="M96" s="39"/>
+      <c r="N96" s="39"/>
+      <c r="O96" s="39"/>
+      <c r="P96" s="39"/>
+      <c r="Q96" s="39"/>
+      <c r="R96" s="39"/>
+      <c r="S96" s="39"/>
+      <c r="T96" s="39"/>
+      <c r="U96" s="39"/>
+      <c r="V96" s="39"/>
+      <c r="W96" s="39"/>
+      <c r="X96" s="39"/>
+    </row>
+    <row r="97" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E97" s="39"/>
+      <c r="F97" s="39"/>
+      <c r="G97" s="39"/>
+      <c r="H97" s="39"/>
+      <c r="I97" s="39"/>
+      <c r="J97" s="39"/>
+      <c r="K97" s="39"/>
+      <c r="L97" s="39"/>
+      <c r="M97" s="39"/>
+      <c r="N97" s="39"/>
+      <c r="O97" s="39"/>
+      <c r="P97" s="39"/>
+      <c r="Q97" s="39"/>
+      <c r="R97" s="39"/>
+      <c r="S97" s="39"/>
+      <c r="T97" s="39"/>
+      <c r="U97" s="39"/>
+      <c r="V97" s="39"/>
+      <c r="W97" s="39"/>
+      <c r="X97" s="39"/>
+    </row>
+    <row r="98" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E98" s="39"/>
+      <c r="F98" s="39"/>
+      <c r="G98" s="39"/>
+      <c r="H98" s="39"/>
+      <c r="I98" s="39"/>
+      <c r="J98" s="39"/>
+      <c r="K98" s="39"/>
+      <c r="L98" s="39"/>
+      <c r="M98" s="39"/>
+      <c r="N98" s="39"/>
+      <c r="O98" s="39"/>
+      <c r="P98" s="39"/>
+      <c r="Q98" s="39"/>
+      <c r="R98" s="39"/>
+      <c r="S98" s="39"/>
+      <c r="T98" s="39"/>
+      <c r="U98" s="39"/>
+      <c r="V98" s="39"/>
+      <c r="W98" s="39"/>
+      <c r="X98" s="39"/>
+    </row>
+    <row r="99" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E99" s="39"/>
+      <c r="F99" s="39"/>
+      <c r="G99" s="39"/>
+      <c r="H99" s="39"/>
+      <c r="I99" s="39"/>
+      <c r="J99" s="39"/>
+      <c r="K99" s="39"/>
+      <c r="L99" s="39"/>
+      <c r="M99" s="39"/>
+      <c r="N99" s="39"/>
+      <c r="O99" s="39"/>
+      <c r="P99" s="39"/>
+      <c r="Q99" s="39"/>
+      <c r="R99" s="39"/>
+      <c r="S99" s="39"/>
+      <c r="T99" s="39"/>
+      <c r="U99" s="39"/>
+      <c r="V99" s="39"/>
+      <c r="W99" s="39"/>
+      <c r="X99" s="39"/>
+    </row>
+    <row r="100" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E100" s="39"/>
+      <c r="F100" s="39"/>
+      <c r="G100" s="39"/>
+      <c r="H100" s="39"/>
+      <c r="I100" s="39"/>
+      <c r="J100" s="39"/>
+      <c r="K100" s="39"/>
+      <c r="L100" s="39"/>
+      <c r="M100" s="39"/>
+      <c r="N100" s="39"/>
+      <c r="O100" s="39"/>
+      <c r="P100" s="39"/>
+      <c r="Q100" s="39"/>
+      <c r="R100" s="39"/>
+      <c r="S100" s="39"/>
+      <c r="T100" s="39"/>
+      <c r="U100" s="39"/>
+      <c r="V100" s="39"/>
+      <c r="W100" s="39"/>
+      <c r="X100" s="39"/>
+    </row>
+    <row r="101" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E101" s="39"/>
+      <c r="F101" s="39"/>
+      <c r="G101" s="39"/>
+      <c r="H101" s="39"/>
+      <c r="I101" s="39"/>
+      <c r="J101" s="39"/>
+      <c r="K101" s="39"/>
+      <c r="L101" s="39"/>
+      <c r="M101" s="39"/>
+      <c r="N101" s="39"/>
+      <c r="O101" s="39"/>
+      <c r="P101" s="39"/>
+      <c r="Q101" s="39"/>
+      <c r="R101" s="39"/>
+      <c r="S101" s="39"/>
+      <c r="T101" s="39"/>
+      <c r="U101" s="39"/>
+      <c r="V101" s="39"/>
+      <c r="W101" s="39"/>
+      <c r="X101" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
